--- a/BackTest/2019-10-30 BackTest OCN.xlsx
+++ b/BackTest/2019-10-30 BackTest OCN.xlsx
@@ -8994,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -10811,13 +10811,17 @@
         <v>1.0065</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1.02</v>
+      </c>
       <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
@@ -10846,14 +10850,22 @@
         <v>1.0045</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K299" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10881,14 +10893,22 @@
         <v>1.0035</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1</v>
+      </c>
+      <c r="K300" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10916,14 +10936,22 @@
         <v>1.002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +10985,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +11026,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11067,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11062,8 +11108,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11149,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11132,8 +11190,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11167,8 +11231,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11202,8 +11272,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11237,8 +11313,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11272,8 +11354,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +11395,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11336,14 +11430,22 @@
         <v>0.9919999999999988</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11479,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +11520,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11447,8 +11561,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11482,8 +11602,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11517,8 +11643,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +11684,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +11725,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11622,8 +11766,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11657,8 +11807,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +11848,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +11889,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11762,8 +11930,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11797,8 +11971,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11832,8 +12012,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11867,8 +12053,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11902,8 +12094,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +12135,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12176,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12217,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12042,8 +12258,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12077,8 +12299,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12112,8 +12340,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +12381,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12422,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12217,8 +12463,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12252,8 +12504,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12287,8 +12545,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12322,8 +12586,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12357,8 +12627,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12392,8 +12668,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12427,8 +12709,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12462,8 +12750,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +12791,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +12832,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12567,8 +12873,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12602,8 +12914,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12637,8 +12955,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12672,8 +12996,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +13037,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12742,8 +13078,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12777,8 +13119,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +13160,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -12847,8 +13201,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +13242,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -12917,8 +13283,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -12946,18 +13318,20 @@
         <v>0.9884999999999987</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L359" t="inlineStr"/>
+        <v>1.02</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -12985,20 +13359,18 @@
         <v>0.9874999999999987</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M360" t="n">
@@ -13028,20 +13400,18 @@
         <v>0.9874999999999987</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>0.97</v>
+        <v>1.02</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M361" t="n">
@@ -13071,18 +13441,20 @@
         <v>0.9869999999999989</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L362" t="inlineStr"/>
+        <v>1.02</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13110,20 +13482,18 @@
         <v>0.9854999999999988</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M363" t="n">
@@ -13153,16 +13523,14 @@
         <v>0.9849999999999989</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13196,16 +13564,14 @@
         <v>0.9839999999999989</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13239,16 +13605,14 @@
         <v>0.982999999999999</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13282,16 +13646,14 @@
         <v>0.981999999999999</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13325,16 +13687,14 @@
         <v>0.980999999999999</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13368,16 +13728,14 @@
         <v>0.979999999999999</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13411,16 +13769,14 @@
         <v>0.978999999999999</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13454,16 +13810,14 @@
         <v>0.9784999999999991</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13497,16 +13851,14 @@
         <v>0.9779999999999991</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13540,16 +13892,14 @@
         <v>0.9769999999999991</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -13583,16 +13933,14 @@
         <v>0.9759999999999991</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -13626,16 +13974,14 @@
         <v>0.973999999999999</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -13669,16 +14015,14 @@
         <v>0.973999999999999</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -13712,16 +14056,14 @@
         <v>0.973999999999999</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -13755,16 +14097,14 @@
         <v>0.974499999999999</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>0.98</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest OCN.xlsx
+++ b/BackTest/2019-10-30 BackTest OCN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M378"/>
+  <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>1.03</v>
       </c>
       <c r="C2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E2" t="n">
         <v>1.03</v>
       </c>
       <c r="F2" t="n">
-        <v>222059</v>
+        <v>29926.8167</v>
       </c>
       <c r="G2" t="n">
-        <v>1.064</v>
+        <v>1.041166666666665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>1.03</v>
       </c>
       <c r="C3" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="E3" t="n">
         <v>1.03</v>
       </c>
       <c r="F3" t="n">
-        <v>79685.228</v>
+        <v>222059</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0615</v>
+        <v>1.042666666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>1.03</v>
       </c>
       <c r="C4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="E4" t="n">
         <v>1.03</v>
       </c>
       <c r="F4" t="n">
-        <v>75000</v>
+        <v>79685.228</v>
       </c>
       <c r="G4" t="n">
-        <v>1.059</v>
+        <v>1.043666666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="D5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E5" t="n">
         <v>1.03</v>
       </c>
       <c r="F5" t="n">
-        <v>38886</v>
+        <v>75000</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0575</v>
+        <v>1.044999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="D6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F6" t="n">
-        <v>287487.8822</v>
+        <v>38886</v>
       </c>
       <c r="G6" t="n">
-        <v>1.056</v>
+        <v>1.045999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="D7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>287487.8822</v>
       </c>
       <c r="G7" t="n">
-        <v>1.055</v>
+        <v>1.046499999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F8" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0535</v>
+        <v>1.047833333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F9" t="n">
-        <v>10.1</v>
+        <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0535</v>
+        <v>1.048666666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>1.05</v>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>10.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1.052</v>
+        <v>1.049666666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="D11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="E11" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="F11" t="n">
-        <v>10784.3137</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="n">
-        <v>1.048999999999999</v>
+        <v>1.050499999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>1.02</v>
       </c>
       <c r="C12" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="D12" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="E12" t="n">
         <v>1.02</v>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>10784.3137</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0465</v>
+        <v>1.050666666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E13" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="F13" t="n">
-        <v>57679.5238</v>
+        <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>1.044999999999999</v>
+        <v>1.050833333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C14" t="n">
         <v>1.06</v>
@@ -862,13 +862,13 @@
         <v>1.06</v>
       </c>
       <c r="E14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F14" t="n">
-        <v>943.3962</v>
+        <v>57679.5238</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0445</v>
+        <v>1.050999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>1.06</v>
       </c>
       <c r="F15" t="n">
-        <v>68316.0377</v>
+        <v>943.3962</v>
       </c>
       <c r="G15" t="n">
-        <v>1.044999999999999</v>
+        <v>1.052833333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="C16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E16" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="F16" t="n">
-        <v>342162.7125</v>
+        <v>68316.0377</v>
       </c>
       <c r="G16" t="n">
-        <v>1.042999999999999</v>
+        <v>1.053166666666665</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C17" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="D17" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="E17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F17" t="n">
-        <v>260000</v>
+        <v>342162.7125</v>
       </c>
       <c r="G17" t="n">
-        <v>1.042499999999999</v>
+        <v>1.053666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>1.04</v>
       </c>
       <c r="C18" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="D18" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="E18" t="n">
         <v>1.04</v>
       </c>
       <c r="F18" t="n">
-        <v>143723.3407</v>
+        <v>260000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.041499999999999</v>
+        <v>1.053666666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>1.04</v>
       </c>
       <c r="C19" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="D19" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="E19" t="n">
         <v>1.04</v>
       </c>
       <c r="F19" t="n">
-        <v>50000</v>
+        <v>143723.3407</v>
       </c>
       <c r="G19" t="n">
-        <v>1.040999999999999</v>
+        <v>1.054499999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>1.04</v>
       </c>
       <c r="F20" t="n">
-        <v>42410</v>
+        <v>50000</v>
       </c>
       <c r="G20" t="n">
-        <v>1.040499999999999</v>
+        <v>1.054499999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>1.04</v>
       </c>
       <c r="F21" t="n">
-        <v>19955.5018</v>
+        <v>42410</v>
       </c>
       <c r="G21" t="n">
-        <v>1.040999999999999</v>
+        <v>1.054499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C22" t="n">
         <v>1.04</v>
@@ -1142,13 +1142,13 @@
         <v>1.04</v>
       </c>
       <c r="E22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F22" t="n">
-        <v>140616.8424</v>
+        <v>19955.5018</v>
       </c>
       <c r="G22" t="n">
-        <v>1.040999999999999</v>
+        <v>1.054499999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="C23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="D23" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="E23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="F23" t="n">
-        <v>11.2</v>
+        <v>140616.8424</v>
       </c>
       <c r="G23" t="n">
-        <v>1.042999999999999</v>
+        <v>1.054499999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C24" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="D24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E24" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="F24" t="n">
-        <v>50000</v>
+        <v>11.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.043999999999999</v>
+        <v>1.054999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E25" t="n">
         <v>1.04</v>
       </c>
       <c r="F25" t="n">
-        <v>153328.317</v>
+        <v>50000</v>
       </c>
       <c r="G25" t="n">
-        <v>1.043999999999999</v>
+        <v>1.054999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C26" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="D26" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F26" t="n">
-        <v>22537.2932</v>
+        <v>153328.317</v>
       </c>
       <c r="G26" t="n">
-        <v>1.042999999999999</v>
+        <v>1.055499999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C27" t="n">
         <v>1.03</v>
       </c>
       <c r="D27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E27" t="n">
         <v>1.03</v>
       </c>
       <c r="F27" t="n">
-        <v>50000</v>
+        <v>22537.2932</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041999999999999</v>
+        <v>1.055499999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C28" t="n">
         <v>1.03</v>
       </c>
       <c r="D28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E28" t="n">
         <v>1.03</v>
       </c>
       <c r="F28" t="n">
-        <v>31403.8693</v>
+        <v>50000</v>
       </c>
       <c r="G28" t="n">
-        <v>1.041499999999999</v>
+        <v>1.054999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F29" t="n">
-        <v>21477.5168</v>
+        <v>31403.8693</v>
       </c>
       <c r="G29" t="n">
-        <v>1.040999999999999</v>
+        <v>1.054833333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>1.04</v>
       </c>
       <c r="C30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E30" t="n">
         <v>1.04</v>
       </c>
       <c r="F30" t="n">
-        <v>810</v>
+        <v>21477.5168</v>
       </c>
       <c r="G30" t="n">
-        <v>1.040499999999999</v>
+        <v>1.054833333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>1.04</v>
       </c>
       <c r="C31" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="D31" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E31" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>810</v>
       </c>
       <c r="G31" t="n">
-        <v>1.041499999999999</v>
+        <v>1.055333333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="D32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="F32" t="n">
-        <v>952.3809</v>
+        <v>50000</v>
       </c>
       <c r="G32" t="n">
-        <v>1.042999999999999</v>
+        <v>1.054833333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>1.05</v>
       </c>
       <c r="F33" t="n">
-        <v>45.6191</v>
+        <v>952.3809</v>
       </c>
       <c r="G33" t="n">
-        <v>1.042999999999999</v>
+        <v>1.054666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F34" t="n">
-        <v>74.38500000000001</v>
+        <v>45.6191</v>
       </c>
       <c r="G34" t="n">
-        <v>1.043499999999999</v>
+        <v>1.054499999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E35" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="F35" t="n">
-        <v>20</v>
+        <v>74.38500000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>1.043499999999999</v>
+        <v>1.054833333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="C36" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="D36" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="E36" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="F36" t="n">
-        <v>293643.71</v>
+        <v>20</v>
       </c>
       <c r="G36" t="n">
-        <v>1.043499999999999</v>
+        <v>1.054166666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C37" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="D37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E37" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="F37" t="n">
-        <v>37</v>
+        <v>293643.71</v>
       </c>
       <c r="G37" t="n">
-        <v>1.043499999999999</v>
+        <v>1.052833333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>1.04</v>
       </c>
       <c r="C38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E38" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="F38" t="n">
-        <v>1206794.0747</v>
+        <v>37</v>
       </c>
       <c r="G38" t="n">
-        <v>1.043499999999999</v>
+        <v>1.052166666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="C39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="D39" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E39" t="n">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="F39" t="n">
-        <v>184241</v>
+        <v>1206794.0747</v>
       </c>
       <c r="G39" t="n">
-        <v>1.042499999999999</v>
+        <v>1.052333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E40" t="n">
         <v>1.02</v>
       </c>
       <c r="F40" t="n">
-        <v>678.2524</v>
+        <v>184241</v>
       </c>
       <c r="G40" t="n">
-        <v>1.041999999999999</v>
+        <v>1.051666666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="C41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E41" t="n">
         <v>1.02</v>
       </c>
-      <c r="D41" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1.01</v>
-      </c>
       <c r="F41" t="n">
-        <v>4010</v>
+        <v>678.2524</v>
       </c>
       <c r="G41" t="n">
-        <v>1.040499999999999</v>
+        <v>1.050666666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C42" t="n">
         <v>1.02</v>
       </c>
-      <c r="C42" t="n">
-        <v>1.03</v>
-      </c>
       <c r="D42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E42" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F42" t="n">
-        <v>94281</v>
+        <v>4010</v>
       </c>
       <c r="G42" t="n">
-        <v>1.039999999999999</v>
+        <v>1.050166666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>1.02</v>
       </c>
       <c r="C43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E43" t="n">
         <v>1.02</v>
       </c>
       <c r="F43" t="n">
-        <v>168881.8478</v>
+        <v>94281</v>
       </c>
       <c r="G43" t="n">
-        <v>1.037499999999999</v>
+        <v>1.049833333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F44" t="n">
-        <v>259652.1437</v>
+        <v>168881.8478</v>
       </c>
       <c r="G44" t="n">
-        <v>1.036499999999999</v>
+        <v>1.048833333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1941,19 @@
         <v>1.03</v>
       </c>
       <c r="C45" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="D45" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="E45" t="n">
         <v>1.03</v>
       </c>
       <c r="F45" t="n">
-        <v>25000</v>
+        <v>259652.1437</v>
       </c>
       <c r="G45" t="n">
-        <v>1.035999999999999</v>
+        <v>1.047999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C46" t="n">
         <v>1.06</v>
@@ -1982,13 +1982,13 @@
         <v>1.06</v>
       </c>
       <c r="E46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F46" t="n">
-        <v>89242.71739999999</v>
+        <v>25000</v>
       </c>
       <c r="G46" t="n">
-        <v>1.035499999999999</v>
+        <v>1.047999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>1.02</v>
       </c>
       <c r="C47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E47" t="n">
         <v>1.02</v>
       </c>
       <c r="F47" t="n">
-        <v>260714.2596</v>
+        <v>89242.71739999999</v>
       </c>
       <c r="G47" t="n">
-        <v>1.034499999999999</v>
+        <v>1.047666666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="C48" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="D48" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E48" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F48" t="n">
-        <v>107474.5984</v>
+        <v>260714.2596</v>
       </c>
       <c r="G48" t="n">
-        <v>1.034999999999999</v>
+        <v>1.047166666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>1.04</v>
       </c>
       <c r="C49" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="D49" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E49" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="F49" t="n">
-        <v>43012</v>
+        <v>107474.5984</v>
       </c>
       <c r="G49" t="n">
-        <v>1.034999999999999</v>
+        <v>1.046999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>1.04</v>
       </c>
       <c r="C50" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E50" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="F50" t="n">
-        <v>572079.4905</v>
+        <v>43012</v>
       </c>
       <c r="G50" t="n">
-        <v>1.034999999999999</v>
+        <v>1.045999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>1.04</v>
       </c>
       <c r="C51" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="D51" t="n">
         <v>1.08</v>
       </c>
       <c r="E51" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F51" t="n">
-        <v>183329</v>
+        <v>572079.4905</v>
       </c>
       <c r="G51" t="n">
-        <v>1.034999999999999</v>
+        <v>1.045499999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C52" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="D52" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="E52" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F52" t="n">
-        <v>29034.7003</v>
+        <v>183329</v>
       </c>
       <c r="G52" t="n">
-        <v>1.034999999999999</v>
+        <v>1.045499999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D53" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E53" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F53" t="n">
-        <v>108291.1166</v>
+        <v>29034.7003</v>
       </c>
       <c r="G53" t="n">
-        <v>1.034499999999999</v>
+        <v>1.045166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>1.04</v>
       </c>
       <c r="C54" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D54" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E54" t="n">
         <v>1.04</v>
       </c>
       <c r="F54" t="n">
-        <v>279435.0337</v>
+        <v>108291.1166</v>
       </c>
       <c r="G54" t="n">
-        <v>1.032999999999999</v>
+        <v>1.044833333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>1.04</v>
       </c>
       <c r="C55" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="D55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E55" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F55" t="n">
-        <v>21398</v>
+        <v>279435.0337</v>
       </c>
       <c r="G55" t="n">
-        <v>1.031999999999999</v>
+        <v>1.044833333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="C56" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="D56" t="n">
         <v>1.06</v>
       </c>
       <c r="E56" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F56" t="n">
-        <v>10164.23</v>
+        <v>21398</v>
       </c>
       <c r="G56" t="n">
-        <v>1.033499999999999</v>
+        <v>1.044333333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C57" t="n">
         <v>1.06</v>
@@ -2370,10 +2370,10 @@
         <v>1.04</v>
       </c>
       <c r="F57" t="n">
-        <v>102975</v>
+        <v>10164.23</v>
       </c>
       <c r="G57" t="n">
-        <v>1.033499999999999</v>
+        <v>1.044166666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>1.04</v>
       </c>
       <c r="F58" t="n">
-        <v>116240</v>
+        <v>102975</v>
       </c>
       <c r="G58" t="n">
-        <v>1.033499999999999</v>
+        <v>1.044333333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>1.04</v>
       </c>
       <c r="F59" t="n">
-        <v>17939</v>
+        <v>116240</v>
       </c>
       <c r="G59" t="n">
-        <v>1.034499999999999</v>
+        <v>1.044333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="C60" t="n">
         <v>1.06</v>
@@ -2475,10 +2475,10 @@
         <v>1.04</v>
       </c>
       <c r="F60" t="n">
-        <v>33159</v>
+        <v>17939</v>
       </c>
       <c r="G60" t="n">
-        <v>1.035999999999999</v>
+        <v>1.044499999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C61" t="n">
         <v>1.06</v>
@@ -2510,10 +2510,10 @@
         <v>1.04</v>
       </c>
       <c r="F61" t="n">
-        <v>69040</v>
+        <v>33159</v>
       </c>
       <c r="G61" t="n">
-        <v>1.037499999999999</v>
+        <v>1.044666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D62" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E62" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F62" t="n">
-        <v>41065</v>
+        <v>69040</v>
       </c>
       <c r="G62" t="n">
-        <v>1.039499999999999</v>
+        <v>1.044666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C63" t="n">
         <v>1.07</v>
@@ -2577,13 +2577,13 @@
         <v>1.07</v>
       </c>
       <c r="E63" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F63" t="n">
-        <v>74098</v>
+        <v>41065</v>
       </c>
       <c r="G63" t="n">
-        <v>1.040499999999999</v>
+        <v>1.044666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C64" t="n">
         <v>1.07</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1.01</v>
       </c>
       <c r="D64" t="n">
         <v>1.07</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="F64" t="n">
-        <v>2497221.3196</v>
+        <v>74098</v>
       </c>
       <c r="G64" t="n">
-        <v>1.042499999999999</v>
+        <v>1.045333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C65" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="D65" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E65" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>72262.1387</v>
+        <v>2497221.3196</v>
       </c>
       <c r="G65" t="n">
-        <v>1.043999999999998</v>
+        <v>1.044666666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C66" t="n">
         <v>1.06</v>
       </c>
       <c r="D66" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E66" t="n">
         <v>1.06</v>
       </c>
       <c r="F66" t="n">
-        <v>758599.7137</v>
+        <v>72262.1387</v>
       </c>
       <c r="G66" t="n">
-        <v>1.046499999999999</v>
+        <v>1.045166666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C67" t="n">
         <v>1.06</v>
       </c>
       <c r="D67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E67" t="n">
         <v>1.06</v>
       </c>
       <c r="F67" t="n">
-        <v>108939.3273</v>
+        <v>758599.7137</v>
       </c>
       <c r="G67" t="n">
-        <v>1.048499999999998</v>
+        <v>1.046</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>1.06</v>
       </c>
       <c r="F68" t="n">
-        <v>345244.6079</v>
+        <v>108939.3273</v>
       </c>
       <c r="G68" t="n">
-        <v>1.049499999999999</v>
+        <v>1.046</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="C69" t="n">
         <v>1.06</v>
       </c>
       <c r="D69" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E69" t="n">
         <v>1.06</v>
       </c>
       <c r="F69" t="n">
-        <v>39731.5303</v>
+        <v>345244.6079</v>
       </c>
       <c r="G69" t="n">
-        <v>1.051499999999999</v>
+        <v>1.046333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>1.08</v>
       </c>
       <c r="C70" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="D70" t="n">
         <v>1.08</v>
       </c>
       <c r="E70" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="F70" t="n">
-        <v>33</v>
+        <v>39731.5303</v>
       </c>
       <c r="G70" t="n">
-        <v>1.053499999999999</v>
+        <v>1.0465</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="C71" t="n">
         <v>1.08</v>
@@ -2857,13 +2857,13 @@
         <v>1.08</v>
       </c>
       <c r="E71" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F71" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G71" t="n">
-        <v>1.054999999999999</v>
+        <v>1.047</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>1.07</v>
       </c>
       <c r="C72" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="D72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E72" t="n">
         <v>1.07</v>
       </c>
-      <c r="E72" t="n">
-        <v>1.05</v>
-      </c>
       <c r="F72" t="n">
-        <v>51453.0588</v>
+        <v>44</v>
       </c>
       <c r="G72" t="n">
-        <v>1.055999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C73" t="n">
         <v>1.05</v>
       </c>
       <c r="D73" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E73" t="n">
         <v>1.05</v>
       </c>
       <c r="F73" t="n">
-        <v>2440</v>
+        <v>51453.0588</v>
       </c>
       <c r="G73" t="n">
-        <v>1.056499999999999</v>
+        <v>1.048</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>1.05</v>
       </c>
       <c r="C74" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D74" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E74" t="n">
         <v>1.05</v>
       </c>
       <c r="F74" t="n">
-        <v>6912</v>
+        <v>2440</v>
       </c>
       <c r="G74" t="n">
-        <v>1.056999999999999</v>
+        <v>1.047833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C75" t="n">
         <v>1.07</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.03</v>
       </c>
       <c r="D75" t="n">
         <v>1.07</v>
       </c>
       <c r="E75" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="F75" t="n">
-        <v>123860.7492</v>
+        <v>6912</v>
       </c>
       <c r="G75" t="n">
-        <v>1.058499999999999</v>
+        <v>1.047999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="C76" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="D76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E76" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="F76" t="n">
-        <v>34.12</v>
+        <v>123860.7492</v>
       </c>
       <c r="G76" t="n">
-        <v>1.059499999999999</v>
+        <v>1.047499999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="C77" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="D77" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="E77" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="F77" t="n">
-        <v>121499.1301</v>
+        <v>34.12</v>
       </c>
       <c r="G77" t="n">
-        <v>1.059499999999999</v>
+        <v>1.047666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="C78" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="D78" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="E78" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="F78" t="n">
-        <v>56.23</v>
+        <v>121499.1301</v>
       </c>
       <c r="G78" t="n">
-        <v>1.061499999999999</v>
+        <v>1.047666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="C79" t="n">
         <v>1.08</v>
@@ -3137,13 +3137,13 @@
         <v>1.08</v>
       </c>
       <c r="E79" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="F79" t="n">
-        <v>492276.169</v>
+        <v>56.23</v>
       </c>
       <c r="G79" t="n">
-        <v>1.061999999999999</v>
+        <v>1.047666666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C80" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="E80" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F80" t="n">
-        <v>97246.92</v>
+        <v>492276.169</v>
       </c>
       <c r="G80" t="n">
-        <v>1.061999999999999</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C81" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D81" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E81" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F81" t="n">
-        <v>273.12</v>
+        <v>97246.92</v>
       </c>
       <c r="G81" t="n">
-        <v>1.063499999999999</v>
+        <v>1.048499999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>1.07</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="D82" t="n">
         <v>1.07</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="F82" t="n">
-        <v>1070465.4256</v>
+        <v>273.12</v>
       </c>
       <c r="G82" t="n">
-        <v>1.063999999999999</v>
+        <v>1.048999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>1.07</v>
       </c>
       <c r="C83" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1.07</v>
       </c>
       <c r="E83" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>33</v>
+        <v>1070465.4256</v>
       </c>
       <c r="G83" t="n">
-        <v>1.065499999999999</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>1.07</v>
       </c>
       <c r="F84" t="n">
-        <v>2869740.7097</v>
+        <v>33</v>
       </c>
       <c r="G84" t="n">
-        <v>1.065499999999999</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>1.07</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="D85" t="n">
         <v>1.07</v>
       </c>
       <c r="E85" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="F85" t="n">
-        <v>36536.68</v>
+        <v>2869740.7097</v>
       </c>
       <c r="G85" t="n">
-        <v>1.065999999999999</v>
+        <v>1.048833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="C86" t="n">
         <v>1.03</v>
       </c>
       <c r="D86" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="E86" t="n">
         <v>1.03</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>36536.68</v>
       </c>
       <c r="G86" t="n">
-        <v>1.064</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>1.03</v>
       </c>
       <c r="C87" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D87" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="E87" t="n">
         <v>1.03</v>
       </c>
       <c r="F87" t="n">
-        <v>3898901.385</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>1.0625</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C88" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="D88" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E88" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F88" t="n">
-        <v>33608.2692</v>
+        <v>3898901.385</v>
       </c>
       <c r="G88" t="n">
-        <v>1.0615</v>
+        <v>1.048499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C89" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="D89" t="n">
         <v>1.05</v>
       </c>
       <c r="E89" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="F89" t="n">
-        <v>100000</v>
+        <v>33608.2692</v>
       </c>
       <c r="G89" t="n">
-        <v>1.06</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="D90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E90" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F90" t="n">
         <v>100000</v>
       </c>
       <c r="G90" t="n">
-        <v>1.058</v>
+        <v>1.048499999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>1.04</v>
       </c>
       <c r="F91" t="n">
-        <v>73568.7316</v>
+        <v>100000</v>
       </c>
       <c r="G91" t="n">
-        <v>1.0565</v>
+        <v>1.048166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C92" t="n">
         <v>1.04</v>
@@ -3592,13 +3592,13 @@
         <v>1.04</v>
       </c>
       <c r="E92" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F92" t="n">
-        <v>36988</v>
+        <v>73568.7316</v>
       </c>
       <c r="G92" t="n">
-        <v>1.0545</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>1.03</v>
       </c>
       <c r="F93" t="n">
-        <v>45290.3527</v>
+        <v>36988</v>
       </c>
       <c r="G93" t="n">
-        <v>1.0535</v>
+        <v>1.048166666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C94" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="D94" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="E94" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F94" t="n">
-        <v>102859.6167</v>
+        <v>45290.3527</v>
       </c>
       <c r="G94" t="n">
-        <v>1.052</v>
+        <v>1.047999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C95" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="E95" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F95" t="n">
-        <v>317470</v>
+        <v>102859.6167</v>
       </c>
       <c r="G95" t="n">
-        <v>1.05</v>
+        <v>1.047166666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C96" t="n">
         <v>1.04</v>
@@ -3732,13 +3732,13 @@
         <v>1.04</v>
       </c>
       <c r="E96" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F96" t="n">
-        <v>75924.02280000001</v>
+        <v>317470</v>
       </c>
       <c r="G96" t="n">
-        <v>1.048</v>
+        <v>1.047333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>1.04</v>
       </c>
       <c r="F97" t="n">
-        <v>356087</v>
+        <v>75924.02280000001</v>
       </c>
       <c r="G97" t="n">
-        <v>1.048</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>1.04</v>
       </c>
       <c r="F98" t="n">
-        <v>37709.4755</v>
+        <v>356087</v>
       </c>
       <c r="G98" t="n">
-        <v>1.046</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>1.04</v>
       </c>
       <c r="F99" t="n">
-        <v>481374.6802</v>
+        <v>37709.4755</v>
       </c>
       <c r="G99" t="n">
-        <v>1.0455</v>
+        <v>1.048166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>1.04</v>
       </c>
       <c r="C100" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D100" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E100" t="n">
         <v>1.04</v>
       </c>
       <c r="F100" t="n">
-        <v>692055.7108</v>
+        <v>481374.6802</v>
       </c>
       <c r="G100" t="n">
-        <v>1.0445</v>
+        <v>1.048166666666666</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="D101" t="n">
         <v>1.05</v>
       </c>
       <c r="E101" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F101" t="n">
-        <v>2476</v>
+        <v>692055.7108</v>
       </c>
       <c r="G101" t="n">
-        <v>1.0435</v>
+        <v>1.048499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="D102" t="n">
         <v>1.05</v>
       </c>
       <c r="E102" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F102" t="n">
-        <v>119171</v>
+        <v>2476</v>
       </c>
       <c r="G102" t="n">
-        <v>1.042</v>
+        <v>1.048666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C103" t="n">
         <v>1.05</v>
@@ -3977,13 +3977,13 @@
         <v>1.05</v>
       </c>
       <c r="E103" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F103" t="n">
-        <v>51262.918</v>
+        <v>119171</v>
       </c>
       <c r="G103" t="n">
-        <v>1.041</v>
+        <v>1.048999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C104" t="n">
         <v>1.05</v>
@@ -4015,10 +4015,10 @@
         <v>1.03</v>
       </c>
       <c r="F104" t="n">
-        <v>1000014.4651</v>
+        <v>51262.918</v>
       </c>
       <c r="G104" t="n">
-        <v>1.0395</v>
+        <v>1.049499999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C105" t="n">
         <v>1.05</v>
@@ -4050,10 +4050,10 @@
         <v>1.03</v>
       </c>
       <c r="F105" t="n">
-        <v>377.6189</v>
+        <v>1000014.4651</v>
       </c>
       <c r="G105" t="n">
-        <v>1.0375</v>
+        <v>1.049833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="C106" t="n">
         <v>1.05</v>
@@ -4082,13 +4082,13 @@
         <v>1.05</v>
       </c>
       <c r="E106" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="F106" t="n">
-        <v>11.3809</v>
+        <v>377.6189</v>
       </c>
       <c r="G106" t="n">
-        <v>1.0385</v>
+        <v>1.049666666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>1.05</v>
       </c>
       <c r="F107" t="n">
-        <v>85001.9047</v>
+        <v>11.3809</v>
       </c>
       <c r="G107" t="n">
-        <v>1.0395</v>
+        <v>1.049499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>1.05</v>
       </c>
       <c r="F108" t="n">
-        <v>219060</v>
+        <v>85001.9047</v>
       </c>
       <c r="G108" t="n">
-        <v>1.04</v>
+        <v>1.049499999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>1.05</v>
       </c>
       <c r="F109" t="n">
-        <v>293520.9523</v>
+        <v>219060</v>
       </c>
       <c r="G109" t="n">
-        <v>1.04</v>
+        <v>1.049666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>1.05</v>
       </c>
       <c r="F110" t="n">
-        <v>1137990.757</v>
+        <v>293520.9523</v>
       </c>
       <c r="G110" t="n">
-        <v>1.0405</v>
+        <v>1.050666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F111" t="n">
-        <v>66</v>
+        <v>1137990.757</v>
       </c>
       <c r="G111" t="n">
-        <v>1.0415</v>
+        <v>1.051166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>1.06</v>
       </c>
       <c r="F112" t="n">
-        <v>460901.7264</v>
+        <v>66</v>
       </c>
       <c r="G112" t="n">
-        <v>1.043</v>
+        <v>1.050833333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>1.06</v>
       </c>
       <c r="C113" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E113" t="n">
         <v>1.06</v>
       </c>
       <c r="F113" t="n">
-        <v>554830.3173</v>
+        <v>460901.7264</v>
       </c>
       <c r="G113" t="n">
-        <v>1.0445</v>
+        <v>1.050999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C114" t="n">
         <v>1.07</v>
@@ -4362,13 +4362,13 @@
         <v>1.07</v>
       </c>
       <c r="E114" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F114" t="n">
-        <v>80601.0745</v>
+        <v>554830.3173</v>
       </c>
       <c r="G114" t="n">
-        <v>1.046999999999999</v>
+        <v>1.051166666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>1.07</v>
       </c>
       <c r="C115" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="E115" t="n">
         <v>1.07</v>
       </c>
       <c r="F115" t="n">
-        <v>667891.028</v>
+        <v>80601.0745</v>
       </c>
       <c r="G115" t="n">
-        <v>1.048999999999999</v>
+        <v>1.051166666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="D116" t="n">
         <v>1.08</v>
       </c>
       <c r="E116" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F116" t="n">
-        <v>120698.7578</v>
+        <v>667891.028</v>
       </c>
       <c r="G116" t="n">
-        <v>1.049999999999999</v>
+        <v>1.052166666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C117" t="n">
         <v>1.07</v>
       </c>
-      <c r="C117" t="n">
-        <v>1.06</v>
-      </c>
       <c r="D117" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="E117" t="n">
         <v>1.06</v>
       </c>
       <c r="F117" t="n">
-        <v>1513637.5357</v>
+        <v>120698.7578</v>
       </c>
       <c r="G117" t="n">
-        <v>1.051499999999999</v>
+        <v>1.052333333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D118" t="n">
         <v>1.07</v>
@@ -4505,10 +4505,10 @@
         <v>1.06</v>
       </c>
       <c r="F118" t="n">
-        <v>877499.8307</v>
+        <v>1513637.5357</v>
       </c>
       <c r="G118" t="n">
-        <v>1.0525</v>
+        <v>1.052333333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>1.06</v>
       </c>
       <c r="F119" t="n">
-        <v>698075.7129</v>
+        <v>877499.8307</v>
       </c>
       <c r="G119" t="n">
-        <v>1.053499999999999</v>
+        <v>1.052499999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C120" t="n">
         <v>1.07</v>
@@ -4575,10 +4575,10 @@
         <v>1.06</v>
       </c>
       <c r="F120" t="n">
-        <v>1979.6893</v>
+        <v>698075.7129</v>
       </c>
       <c r="G120" t="n">
-        <v>1.054999999999999</v>
+        <v>1.052666666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>1.07</v>
       </c>
       <c r="E121" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F121" t="n">
-        <v>2031896.5659</v>
+        <v>1979.6893</v>
       </c>
       <c r="G121" t="n">
-        <v>1.056</v>
+        <v>1.052833333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="C122" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="D122" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E122" t="n">
         <v>1.05</v>
       </c>
       <c r="F122" t="n">
-        <v>1421000.632</v>
+        <v>2031896.5659</v>
       </c>
       <c r="G122" t="n">
-        <v>1.056999999999999</v>
+        <v>1.052999999999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="C123" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D123" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E123" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F123" t="n">
-        <v>718086.0109</v>
+        <v>1421000.632</v>
       </c>
       <c r="G123" t="n">
-        <v>1.057999999999999</v>
+        <v>1.052833333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>1.07</v>
       </c>
       <c r="C124" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="D124" t="n">
         <v>1.07</v>
@@ -4715,10 +4715,10 @@
         <v>1.06</v>
       </c>
       <c r="F124" t="n">
-        <v>157623.6146</v>
+        <v>718086.0109</v>
       </c>
       <c r="G124" t="n">
-        <v>1.059499999999999</v>
+        <v>1.052833333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4741,19 @@
         <v>1.07</v>
       </c>
       <c r="C125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="D125" t="n">
         <v>1.07</v>
       </c>
       <c r="E125" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>157623.6146</v>
       </c>
       <c r="G125" t="n">
-        <v>1.061499999999999</v>
+        <v>1.053666666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>1.07</v>
       </c>
       <c r="F126" t="n">
-        <v>2419661.6821</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>1.0625</v>
+        <v>1.053833333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>1.07</v>
       </c>
       <c r="F127" t="n">
-        <v>50000</v>
+        <v>2419661.6821</v>
       </c>
       <c r="G127" t="n">
-        <v>1.063499999999999</v>
+        <v>1.053999999999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="D128" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E128" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="F128" t="n">
-        <v>47768.0959</v>
+        <v>50000</v>
       </c>
       <c r="G128" t="n">
-        <v>1.063499999999999</v>
+        <v>1.054166666666664</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C129" t="n">
         <v>1.06</v>
@@ -4887,13 +4887,13 @@
         <v>1.06</v>
       </c>
       <c r="E129" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F129" t="n">
-        <v>75000</v>
+        <v>47768.0959</v>
       </c>
       <c r="G129" t="n">
-        <v>1.063999999999999</v>
+        <v>1.054166666666664</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>1.06</v>
       </c>
       <c r="F130" t="n">
-        <v>208447.5692</v>
+        <v>75000</v>
       </c>
       <c r="G130" t="n">
-        <v>1.064499999999999</v>
+        <v>1.054166666666664</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="C131" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D131" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E131" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F131" t="n">
-        <v>1001334.1725</v>
+        <v>208447.5692</v>
       </c>
       <c r="G131" t="n">
-        <v>1.063999999999999</v>
+        <v>1.053833333333331</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>1.05</v>
       </c>
       <c r="C132" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E132" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F132" t="n">
-        <v>6600566.9679</v>
+        <v>1001334.1725</v>
       </c>
       <c r="G132" t="n">
-        <v>1.063499999999999</v>
+        <v>1.053333333333331</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>1.05</v>
       </c>
       <c r="C133" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="D133" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E133" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F133" t="n">
-        <v>26098.6729</v>
+        <v>6600566.9679</v>
       </c>
       <c r="G133" t="n">
-        <v>1.063</v>
+        <v>1.053666666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D134" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F134" t="n">
-        <v>405377.5471</v>
+        <v>26098.6729</v>
       </c>
       <c r="G134" t="n">
-        <v>1.0625</v>
+        <v>1.053666666666665</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D135" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E135" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F135" t="n">
-        <v>404344.1533</v>
+        <v>405377.5471</v>
       </c>
       <c r="G135" t="n">
-        <v>1.061499999999999</v>
+        <v>1.053499999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="C136" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="D136" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E136" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="F136" t="n">
-        <v>132</v>
+        <v>404344.1533</v>
       </c>
       <c r="G136" t="n">
-        <v>1.062</v>
+        <v>1.053833333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="C137" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="D137" t="n">
         <v>1.07</v>
       </c>
       <c r="E137" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="F137" t="n">
-        <v>1840825.827</v>
+        <v>132</v>
       </c>
       <c r="G137" t="n">
-        <v>1.060999999999999</v>
+        <v>1.053666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5196,19 @@
         <v>1.05</v>
       </c>
       <c r="C138" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D138" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="E138" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F138" t="n">
-        <v>755387.0363</v>
+        <v>1840825.827</v>
       </c>
       <c r="G138" t="n">
-        <v>1.0605</v>
+        <v>1.053666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>1.05</v>
       </c>
       <c r="F139" t="n">
-        <v>128909.6961</v>
+        <v>755387.0363</v>
       </c>
       <c r="G139" t="n">
-        <v>1.06</v>
+        <v>1.053166666666665</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5266,19 @@
         <v>1.05</v>
       </c>
       <c r="C140" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D140" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E140" t="n">
         <v>1.05</v>
       </c>
       <c r="F140" t="n">
-        <v>110</v>
+        <v>128909.6961</v>
       </c>
       <c r="G140" t="n">
-        <v>1.059</v>
+        <v>1.052666666666665</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C141" t="n">
         <v>1.06</v>
@@ -5307,13 +5307,13 @@
         <v>1.06</v>
       </c>
       <c r="E141" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F141" t="n">
-        <v>687.799</v>
+        <v>110</v>
       </c>
       <c r="G141" t="n">
-        <v>1.0585</v>
+        <v>1.052833333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="C142" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D142" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E142" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F142" t="n">
-        <v>29660.2357</v>
+        <v>687.799</v>
       </c>
       <c r="G142" t="n">
-        <v>1.058</v>
+        <v>1.052666666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D143" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E143" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F143" t="n">
-        <v>45.2</v>
+        <v>29660.2357</v>
       </c>
       <c r="G143" t="n">
-        <v>1.0575</v>
+        <v>1.053499999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="C144" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D144" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E144" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F144" t="n">
-        <v>74228.0769</v>
+        <v>45.2</v>
       </c>
       <c r="G144" t="n">
-        <v>1.0565</v>
+        <v>1.053333333333332</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>1.05</v>
       </c>
       <c r="F145" t="n">
-        <v>513815.2733</v>
+        <v>74228.0769</v>
       </c>
       <c r="G145" t="n">
-        <v>1.0555</v>
+        <v>1.052999999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C146" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D146" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E146" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F146" t="n">
-        <v>10</v>
+        <v>513815.2733</v>
       </c>
       <c r="G146" t="n">
-        <v>1.055</v>
+        <v>1.053333333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="C147" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="D147" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="E147" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F147" t="n">
-        <v>33848.6748</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>1.054</v>
+        <v>1.053833333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>1.05</v>
       </c>
       <c r="F148" t="n">
-        <v>1075897.1399</v>
+        <v>33848.6748</v>
       </c>
       <c r="G148" t="n">
-        <v>1.054</v>
+        <v>1.053999999999998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>1075897.1399</v>
       </c>
       <c r="G149" t="n">
-        <v>1.054</v>
+        <v>1.054499999999998</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C150" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D150" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E150" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F150" t="n">
-        <v>43348.9557</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>1.053</v>
+        <v>1.054666666666665</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E151" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F151" t="n">
-        <v>186388.5714</v>
+        <v>43348.9557</v>
       </c>
       <c r="G151" t="n">
-        <v>1.053</v>
+        <v>1.054666666666665</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>1.05</v>
       </c>
       <c r="F152" t="n">
-        <v>9100</v>
+        <v>186388.5714</v>
       </c>
       <c r="G152" t="n">
-        <v>1.053</v>
+        <v>1.054833333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5721,19 +5721,19 @@
         <v>1.05</v>
       </c>
       <c r="C153" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="D153" t="n">
         <v>1.05</v>
       </c>
       <c r="E153" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F153" t="n">
-        <v>502059.9735</v>
+        <v>9100</v>
       </c>
       <c r="G153" t="n">
-        <v>1.053</v>
+        <v>1.054999999999999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C154" t="n">
         <v>1.04</v>
       </c>
       <c r="D154" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E154" t="n">
         <v>1.04</v>
       </c>
       <c r="F154" t="n">
-        <v>618211.6833</v>
+        <v>502059.9735</v>
       </c>
       <c r="G154" t="n">
-        <v>1.052</v>
+        <v>1.054999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>1.04</v>
       </c>
       <c r="F155" t="n">
-        <v>1938273.1654</v>
+        <v>618211.6833</v>
       </c>
       <c r="G155" t="n">
-        <v>1.0515</v>
+        <v>1.055333333333332</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>1.04</v>
       </c>
       <c r="F156" t="n">
-        <v>478026.4396</v>
+        <v>1938273.1654</v>
       </c>
       <c r="G156" t="n">
-        <v>1.05</v>
+        <v>1.055333333333332</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5864,16 +5864,16 @@
         <v>1.04</v>
       </c>
       <c r="D157" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E157" t="n">
         <v>1.04</v>
       </c>
       <c r="F157" t="n">
-        <v>90330</v>
+        <v>478026.4396</v>
       </c>
       <c r="G157" t="n">
-        <v>1.0495</v>
+        <v>1.055333333333332</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C158" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D158" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="E158" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F158" t="n">
-        <v>784080.7548</v>
+        <v>90330</v>
       </c>
       <c r="G158" t="n">
-        <v>1.0485</v>
+        <v>1.055333333333332</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5934,16 +5934,16 @@
         <v>1.03</v>
       </c>
       <c r="D159" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E159" t="n">
         <v>1.03</v>
       </c>
       <c r="F159" t="n">
-        <v>2189811.9132</v>
+        <v>784080.7548</v>
       </c>
       <c r="G159" t="n">
-        <v>1.0475</v>
+        <v>1.055166666666665</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5969,16 +5969,16 @@
         <v>1.03</v>
       </c>
       <c r="D160" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E160" t="n">
         <v>1.03</v>
       </c>
       <c r="F160" t="n">
-        <v>1010000</v>
+        <v>2189811.9132</v>
       </c>
       <c r="G160" t="n">
-        <v>1.0465</v>
+        <v>1.054999999999998</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C161" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D161" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E161" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F161" t="n">
-        <v>84789.3999</v>
+        <v>1010000</v>
       </c>
       <c r="G161" t="n">
-        <v>1.0445</v>
+        <v>1.054666666666665</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6036,19 +6036,19 @@
         <v>1.02</v>
       </c>
       <c r="C162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D162" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E162" t="n">
         <v>1.02</v>
       </c>
       <c r="F162" t="n">
-        <v>52794.929</v>
+        <v>84789.3999</v>
       </c>
       <c r="G162" t="n">
-        <v>1.043</v>
+        <v>1.054499999999998</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C163" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D163" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E163" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F163" t="n">
-        <v>6237</v>
+        <v>52794.929</v>
       </c>
       <c r="G163" t="n">
-        <v>1.0415</v>
+        <v>1.054166666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6106,19 @@
         <v>1.03</v>
       </c>
       <c r="C164" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D164" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E164" t="n">
         <v>1.03</v>
       </c>
       <c r="F164" t="n">
-        <v>21577.9411</v>
+        <v>6237</v>
       </c>
       <c r="G164" t="n">
-        <v>1.0405</v>
+        <v>1.053999999999998</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         <v>1.03</v>
       </c>
       <c r="F165" t="n">
-        <v>116605.8252</v>
+        <v>21577.9411</v>
       </c>
       <c r="G165" t="n">
-        <v>1.0395</v>
+        <v>1.053666666666665</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>1.03</v>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>116605.8252</v>
       </c>
       <c r="G166" t="n">
-        <v>1.038</v>
+        <v>1.053333333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="C167" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="D167" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E167" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F167" t="n">
-        <v>898650.1975</v>
+        <v>250</v>
       </c>
       <c r="G167" t="n">
-        <v>1.036</v>
+        <v>1.052999999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>1.01</v>
       </c>
       <c r="F168" t="n">
-        <v>292001.8499</v>
+        <v>898650.1975</v>
       </c>
       <c r="G168" t="n">
-        <v>1.034</v>
+        <v>1.052333333333332</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6281,19 @@
         <v>1.01</v>
       </c>
       <c r="C169" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="D169" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="E169" t="n">
         <v>1.01</v>
       </c>
       <c r="F169" t="n">
-        <v>249700.3116</v>
+        <v>292001.8499</v>
       </c>
       <c r="G169" t="n">
-        <v>1.0315</v>
+        <v>1.051666666666666</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="E170" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>249700.3116</v>
       </c>
       <c r="G170" t="n">
-        <v>1.0295</v>
+        <v>1.051333333333332</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>725974.7801</v>
+        <v>10</v>
       </c>
       <c r="G171" t="n">
-        <v>1.027</v>
+        <v>1.050499999999999</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>311537.7071708738</v>
+        <v>725974.7801</v>
       </c>
       <c r="G172" t="n">
-        <v>1.0255</v>
+        <v>1.049499999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6421,19 +6421,19 @@
         <v>1.02</v>
       </c>
       <c r="C173" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="D173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E173" t="n">
         <v>1.02</v>
       </c>
-      <c r="E173" t="n">
-        <v>1.01</v>
-      </c>
       <c r="F173" t="n">
-        <v>401729.9711</v>
+        <v>311537.7071708738</v>
       </c>
       <c r="G173" t="n">
-        <v>1.024</v>
+        <v>1.048999999999999</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,10 +6453,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C174" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D174" t="n">
         <v>1.02</v>
@@ -6465,10 +6465,10 @@
         <v>1.01</v>
       </c>
       <c r="F174" t="n">
-        <v>443738.9537</v>
+        <v>401729.9711</v>
       </c>
       <c r="G174" t="n">
-        <v>1.0225</v>
+        <v>1.047999999999999</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>1.01</v>
       </c>
       <c r="C175" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D175" t="n">
         <v>1.02</v>
@@ -6500,10 +6500,10 @@
         <v>1.01</v>
       </c>
       <c r="F175" t="n">
-        <v>1099949.5841</v>
+        <v>443738.9537</v>
       </c>
       <c r="G175" t="n">
-        <v>1.021</v>
+        <v>1.047166666666666</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6529,16 +6529,16 @@
         <v>1.01</v>
       </c>
       <c r="D176" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E176" t="n">
         <v>1.01</v>
       </c>
       <c r="F176" t="n">
-        <v>259341.097</v>
+        <v>1099949.5841</v>
       </c>
       <c r="G176" t="n">
-        <v>1.0195</v>
+        <v>1.045999999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>1.01</v>
       </c>
       <c r="F177" t="n">
-        <v>478675.1812</v>
+        <v>259341.097</v>
       </c>
       <c r="G177" t="n">
-        <v>1.018</v>
+        <v>1.044999999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>1.01</v>
       </c>
       <c r="F178" t="n">
-        <v>81195.9518</v>
+        <v>478675.1812</v>
       </c>
       <c r="G178" t="n">
-        <v>1.017000000000001</v>
+        <v>1.044166666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6631,19 +6631,19 @@
         <v>1.01</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D179" t="n">
         <v>1.01</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F179" t="n">
-        <v>292450.3959</v>
+        <v>81195.9518</v>
       </c>
       <c r="G179" t="n">
-        <v>1.016</v>
+        <v>1.043166666666665</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>35356.4853</v>
+        <v>292450.3959</v>
       </c>
       <c r="G180" t="n">
-        <v>1.0145</v>
+        <v>1.041999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>10113</v>
+        <v>35356.4853</v>
       </c>
       <c r="G181" t="n">
-        <v>1.014000000000001</v>
+        <v>1.040833333333332</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>1.01</v>
       </c>
       <c r="F182" t="n">
-        <v>818696.2772</v>
+        <v>10113</v>
       </c>
       <c r="G182" t="n">
-        <v>1.013500000000001</v>
+        <v>1.039833333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>1.01</v>
       </c>
       <c r="F183" t="n">
-        <v>409483.8515</v>
+        <v>818696.2772</v>
       </c>
       <c r="G183" t="n">
-        <v>1.012500000000001</v>
+        <v>1.038999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6806,19 +6806,19 @@
         <v>1.01</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D184" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F184" t="n">
-        <v>8279</v>
+        <v>409483.8515</v>
       </c>
       <c r="G184" t="n">
-        <v>1.011500000000001</v>
+        <v>1.037999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6841,19 +6841,19 @@
         <v>1.01</v>
       </c>
       <c r="C185" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E185" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>100000</v>
+        <v>8279</v>
       </c>
       <c r="G185" t="n">
-        <v>1.010500000000001</v>
+        <v>1.036999999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>1.01</v>
       </c>
       <c r="F186" t="n">
-        <v>85922.60000000001</v>
+        <v>100000</v>
       </c>
       <c r="G186" t="n">
-        <v>1.009500000000001</v>
+        <v>1.035999999999999</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>1.01</v>
       </c>
       <c r="F187" t="n">
-        <v>525564.7915000001</v>
+        <v>85922.60000000001</v>
       </c>
       <c r="G187" t="n">
-        <v>1.009500000000001</v>
+        <v>1.034999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6952,13 +6952,13 @@
         <v>1.01</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F188" t="n">
-        <v>2498556.097</v>
+        <v>525564.7915000001</v>
       </c>
       <c r="G188" t="n">
-        <v>1.009500000000001</v>
+        <v>1.033999999999998</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,10 +6978,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D189" t="n">
         <v>1.01</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>375592.0712</v>
+        <v>2498556.097</v>
       </c>
       <c r="G189" t="n">
-        <v>1.009000000000001</v>
+        <v>1.033166666666665</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>1.01</v>
       </c>
       <c r="E190" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>597834.1646</v>
+        <v>375592.0712</v>
       </c>
       <c r="G190" t="n">
-        <v>1.009500000000001</v>
+        <v>1.032166666666665</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C191" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D191" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E191" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F191" t="n">
-        <v>215928.431372549</v>
+        <v>597834.1646</v>
       </c>
       <c r="G191" t="n">
-        <v>1.010500000000001</v>
+        <v>1.031333333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C192" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D192" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E192" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="F192" t="n">
-        <v>183151.1871</v>
+        <v>215928.431372549</v>
       </c>
       <c r="G192" t="n">
-        <v>1.010000000000001</v>
+        <v>1.030833333333332</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>1.01</v>
       </c>
       <c r="F193" t="n">
-        <v>132096.3456</v>
+        <v>183151.1871</v>
       </c>
       <c r="G193" t="n">
-        <v>1.009500000000001</v>
+        <v>1.029833333333332</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,10 +7165,10 @@
         <v>1.01</v>
       </c>
       <c r="F194" t="n">
-        <v>21761.697</v>
+        <v>132096.3456</v>
       </c>
       <c r="G194" t="n">
-        <v>1.009500000000001</v>
+        <v>1.029166666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>1.01</v>
       </c>
       <c r="F195" t="n">
-        <v>75000</v>
+        <v>21761.697</v>
       </c>
       <c r="G195" t="n">
-        <v>1.009500000000001</v>
+        <v>1.028333333333332</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7238,7 +7238,7 @@
         <v>75000</v>
       </c>
       <c r="G196" t="n">
-        <v>1.009500000000001</v>
+        <v>1.027666666666665</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F197" t="n">
-        <v>2190332.5627</v>
+        <v>75000</v>
       </c>
       <c r="G197" t="n">
-        <v>1.009000000000001</v>
+        <v>1.026666666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>1518006.3112</v>
+        <v>2190332.5627</v>
       </c>
       <c r="G198" t="n">
-        <v>1.009000000000001</v>
+        <v>1.025999999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C199" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>347184.6502</v>
+        <v>1518006.3112</v>
       </c>
       <c r="G199" t="n">
-        <v>1.008500000000001</v>
+        <v>1.025166666666665</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>1.02</v>
@@ -7372,13 +7372,13 @@
         <v>1.02</v>
       </c>
       <c r="E200" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>191484.92</v>
+        <v>347184.6502</v>
       </c>
       <c r="G200" t="n">
-        <v>1.009500000000001</v>
+        <v>1.024666666666665</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C201" t="n">
         <v>1.02</v>
@@ -7407,13 +7407,13 @@
         <v>1.02</v>
       </c>
       <c r="E201" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F201" t="n">
-        <v>438987.4192</v>
+        <v>191484.92</v>
       </c>
       <c r="G201" t="n">
-        <v>1.009000000000001</v>
+        <v>1.023999999999998</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,7 +7433,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>1.02</v>
@@ -7442,13 +7442,13 @@
         <v>1.02</v>
       </c>
       <c r="E202" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>25604</v>
+        <v>438987.4192</v>
       </c>
       <c r="G202" t="n">
-        <v>1.009000000000001</v>
+        <v>1.023333333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,7 +7468,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C203" t="n">
         <v>1.02</v>
@@ -7477,13 +7477,13 @@
         <v>1.02</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F203" t="n">
-        <v>916121.1345</v>
+        <v>25604</v>
       </c>
       <c r="G203" t="n">
-        <v>1.008500000000001</v>
+        <v>1.022833333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D204" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E204" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>7490</v>
+        <v>916121.1345</v>
       </c>
       <c r="G204" t="n">
-        <v>1.008500000000001</v>
+        <v>1.022166666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>1.01</v>
       </c>
       <c r="F205" t="n">
-        <v>10000</v>
+        <v>7490</v>
       </c>
       <c r="G205" t="n">
-        <v>1.008500000000001</v>
+        <v>1.021499999999999</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>1.01</v>
       </c>
       <c r="F206" t="n">
-        <v>9600.212799999999</v>
+        <v>10000</v>
       </c>
       <c r="G206" t="n">
-        <v>1.008500000000001</v>
+        <v>1.020833333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>1.01</v>
       </c>
       <c r="F207" t="n">
-        <v>3245.59</v>
+        <v>9600.212799999999</v>
       </c>
       <c r="G207" t="n">
-        <v>1.008500000000001</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>1.01</v>
       </c>
       <c r="F208" t="n">
-        <v>32627.9908</v>
+        <v>3245.59</v>
       </c>
       <c r="G208" t="n">
-        <v>1.008500000000001</v>
+        <v>1.019333333333332</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7687,13 +7687,13 @@
         <v>1.01</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F209" t="n">
-        <v>972019.2757</v>
+        <v>32627.9908</v>
       </c>
       <c r="G209" t="n">
-        <v>1.009000000000001</v>
+        <v>1.018666666666665</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,7 +7716,7 @@
         <v>1.01</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D210" t="n">
         <v>1.01</v>
@@ -7725,10 +7725,10 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>1773253.0634</v>
+        <v>972019.2757</v>
       </c>
       <c r="G210" t="n">
-        <v>1.009000000000001</v>
+        <v>1.017833333333332</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>150000</v>
+        <v>1773253.0634</v>
       </c>
       <c r="G211" t="n">
-        <v>1.008000000000001</v>
+        <v>1.017166666666665</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7786,19 +7786,19 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>840851</v>
+        <v>150000</v>
       </c>
       <c r="G212" t="n">
-        <v>1.007500000000001</v>
+        <v>1.016333333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D213" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>890261.8367</v>
+        <v>840851</v>
       </c>
       <c r="G213" t="n">
-        <v>1.007500000000001</v>
+        <v>1.015833333333332</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7856,19 +7856,19 @@
         <v>1.01</v>
       </c>
       <c r="C214" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>1.01</v>
       </c>
       <c r="E214" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>46030.297</v>
+        <v>890261.8367</v>
       </c>
       <c r="G214" t="n">
-        <v>1.007500000000001</v>
+        <v>1.015166666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D215" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F215" t="n">
-        <v>1149412.6677</v>
+        <v>46030.297</v>
       </c>
       <c r="G215" t="n">
-        <v>1.007000000000001</v>
+        <v>1.014666666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7929,16 +7929,16 @@
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>54778.8071</v>
+        <v>1149412.6677</v>
       </c>
       <c r="G216" t="n">
-        <v>1.0065</v>
+        <v>1.013999999999999</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>219029.8324</v>
+        <v>54778.8071</v>
       </c>
       <c r="G217" t="n">
-        <v>1.0065</v>
+        <v>1.013333333333332</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>56830.1297</v>
+        <v>219029.8324</v>
       </c>
       <c r="G218" t="n">
-        <v>1.006</v>
+        <v>1.012666666666665</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8040,10 +8040,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>1614641.2208</v>
+        <v>56830.1297</v>
       </c>
       <c r="G219" t="n">
-        <v>1.006</v>
+        <v>1.012166666666665</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>2173121.0064</v>
+        <v>1614641.2208</v>
       </c>
       <c r="G220" t="n">
-        <v>1.005</v>
+        <v>1.011666666666665</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>25000</v>
+        <v>2173121.0064</v>
       </c>
       <c r="G221" t="n">
-        <v>1.005</v>
+        <v>1.011166666666665</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>56562</v>
+        <v>25000</v>
       </c>
       <c r="G222" t="n">
-        <v>1.0045</v>
+        <v>1.010833333333332</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8180,10 +8180,10 @@
         <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>175000</v>
+        <v>56562</v>
       </c>
       <c r="G223" t="n">
-        <v>1.0045</v>
+        <v>1.010333333333332</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>126707</v>
+        <v>175000</v>
       </c>
       <c r="G224" t="n">
-        <v>1.004</v>
+        <v>1.009666666666665</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>114960</v>
+        <v>126707</v>
       </c>
       <c r="G225" t="n">
-        <v>1.0035</v>
+        <v>1.009166666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>816228.0437</v>
+        <v>114960</v>
       </c>
       <c r="G226" t="n">
-        <v>1.003</v>
+        <v>1.008666666666665</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>125000</v>
+        <v>816228.0437</v>
       </c>
       <c r="G227" t="n">
-        <v>1.0025</v>
+        <v>1.008166666666665</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8346,19 +8346,19 @@
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>162112</v>
+        <v>125000</v>
       </c>
       <c r="G228" t="n">
-        <v>1.002</v>
+        <v>1.007999999999999</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,7 +8378,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>1.01</v>
@@ -8387,13 +8387,13 @@
         <v>1.01</v>
       </c>
       <c r="E229" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>250</v>
+        <v>162112</v>
       </c>
       <c r="G229" t="n">
-        <v>1.002</v>
+        <v>1.007999999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8425,10 +8425,10 @@
         <v>1.01</v>
       </c>
       <c r="F230" t="n">
-        <v>601752.7757</v>
+        <v>250</v>
       </c>
       <c r="G230" t="n">
-        <v>1.002</v>
+        <v>1.007666666666665</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8451,19 +8451,19 @@
         <v>1.01</v>
       </c>
       <c r="C231" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D231" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="E231" t="n">
         <v>1.01</v>
       </c>
       <c r="F231" t="n">
-        <v>1176358.9674</v>
+        <v>601752.7757</v>
       </c>
       <c r="G231" t="n">
-        <v>1.0025</v>
+        <v>1.007833333333332</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,7 +8483,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="C232" t="n">
         <v>1.02</v>
@@ -8492,13 +8492,13 @@
         <v>1.02</v>
       </c>
       <c r="E232" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F232" t="n">
-        <v>100250</v>
+        <v>1176358.9674</v>
       </c>
       <c r="G232" t="n">
-        <v>1.0035</v>
+        <v>1.008166666666665</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8530,10 +8530,10 @@
         <v>1.02</v>
       </c>
       <c r="F233" t="n">
-        <v>318016.2966</v>
+        <v>100250</v>
       </c>
       <c r="G233" t="n">
-        <v>1.004</v>
+        <v>1.007999999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C234" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D234" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E234" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F234" t="n">
-        <v>900135.9223</v>
+        <v>318016.2966</v>
       </c>
       <c r="G234" t="n">
-        <v>1.005</v>
+        <v>1.008166666666665</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>1.03</v>
       </c>
       <c r="F235" t="n">
-        <v>117744.6601</v>
+        <v>900135.9223</v>
       </c>
       <c r="G235" t="n">
-        <v>1.0065</v>
+        <v>1.008333333333332</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C236" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D236" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E236" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F236" t="n">
-        <v>32391.8137</v>
+        <v>117744.6601</v>
       </c>
       <c r="G236" t="n">
-        <v>1.0075</v>
+        <v>1.008666666666665</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C237" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D237" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E237" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F237" t="n">
-        <v>67.54000000000001</v>
+        <v>32391.8137</v>
       </c>
       <c r="G237" t="n">
-        <v>1.009</v>
+        <v>1.008833333333332</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C238" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D238" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E238" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F238" t="n">
-        <v>28594.3233</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="G238" t="n">
-        <v>1.01</v>
+        <v>1.009166666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>1.02</v>
       </c>
       <c r="F239" t="n">
-        <v>549795.098</v>
+        <v>28594.3233</v>
       </c>
       <c r="G239" t="n">
-        <v>1.011</v>
+        <v>1.009333333333332</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C240" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D240" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E240" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F240" t="n">
-        <v>100</v>
+        <v>549795.098</v>
       </c>
       <c r="G240" t="n">
-        <v>1.0125</v>
+        <v>1.009666666666666</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8810,10 +8810,10 @@
         <v>1.03</v>
       </c>
       <c r="F241" t="n">
-        <v>545500</v>
+        <v>100</v>
       </c>
       <c r="G241" t="n">
-        <v>1.014</v>
+        <v>1.010166666666666</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C242" t="n">
         <v>1.03</v>
       </c>
       <c r="D242" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="E242" t="n">
         <v>1.03</v>
       </c>
       <c r="F242" t="n">
-        <v>68204.20140000001</v>
+        <v>545500</v>
       </c>
       <c r="G242" t="n">
-        <v>1.016</v>
+        <v>1.010499999999999</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8871,19 +8871,19 @@
         <v>1.04</v>
       </c>
       <c r="C243" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="D243" t="n">
         <v>1.04</v>
       </c>
       <c r="E243" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F243" t="n">
-        <v>11</v>
+        <v>68204.20140000001</v>
       </c>
       <c r="G243" t="n">
-        <v>1.018</v>
+        <v>1.010833333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8906,19 +8906,19 @@
         <v>1.04</v>
       </c>
       <c r="C244" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D244" t="n">
         <v>1.04</v>
       </c>
       <c r="E244" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F244" t="n">
-        <v>2618085.1414</v>
+        <v>11</v>
       </c>
       <c r="G244" t="n">
-        <v>1.02</v>
+        <v>1.011333333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8947,19 +8947,19 @@
         <v>1.04</v>
       </c>
       <c r="E245" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F245" t="n">
-        <v>521197.2266</v>
+        <v>2618085.1414</v>
       </c>
       <c r="G245" t="n">
-        <v>1.022</v>
+        <v>1.011833333333332</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C246" t="n">
         <v>1.03</v>
       </c>
       <c r="D246" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E246" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F246" t="n">
-        <v>299000.4883</v>
+        <v>521197.2266</v>
       </c>
       <c r="G246" t="n">
-        <v>1.0235</v>
+        <v>1.012166666666666</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="C247" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="D247" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="E247" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="F247" t="n">
-        <v>96000</v>
+        <v>299000.4883</v>
       </c>
       <c r="G247" t="n">
-        <v>1.0255</v>
+        <v>1.012499999999999</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9046,19 +9046,19 @@
         <v>1.04</v>
       </c>
       <c r="C248" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="D248" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E248" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F248" t="n">
-        <v>102075.04</v>
+        <v>96000</v>
       </c>
       <c r="G248" t="n">
-        <v>1.0275</v>
+        <v>1.013166666666666</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9081,19 +9081,19 @@
         <v>1.04</v>
       </c>
       <c r="C249" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D249" t="n">
         <v>1.04</v>
       </c>
       <c r="E249" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F249" t="n">
-        <v>8172.7209</v>
+        <v>102075.04</v>
       </c>
       <c r="G249" t="n">
-        <v>1.029</v>
+        <v>1.013499999999999</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,10 +9113,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C250" t="n">
         <v>1.02</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1.04</v>
       </c>
       <c r="D250" t="n">
         <v>1.04</v>
@@ -9125,10 +9125,10 @@
         <v>1.02</v>
       </c>
       <c r="F250" t="n">
-        <v>2100</v>
+        <v>8172.7209</v>
       </c>
       <c r="G250" t="n">
-        <v>1.0295</v>
+        <v>1.013833333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="C251" t="n">
         <v>1.04</v>
@@ -9157,13 +9157,13 @@
         <v>1.04</v>
       </c>
       <c r="E251" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F251" t="n">
-        <v>10000</v>
+        <v>2100</v>
       </c>
       <c r="G251" t="n">
-        <v>1.030999999999999</v>
+        <v>1.014333333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9186,19 +9186,19 @@
         <v>1.04</v>
       </c>
       <c r="C252" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="D252" t="n">
         <v>1.04</v>
       </c>
       <c r="E252" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F252" t="n">
-        <v>12129.2307</v>
+        <v>10000</v>
       </c>
       <c r="G252" t="n">
-        <v>1.032</v>
+        <v>1.014666666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9221,19 +9221,19 @@
         <v>1.04</v>
       </c>
       <c r="C253" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="D253" t="n">
         <v>1.04</v>
       </c>
       <c r="E253" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F253" t="n">
-        <v>5228.3653</v>
+        <v>12129.2307</v>
       </c>
       <c r="G253" t="n">
-        <v>1.032999999999999</v>
+        <v>1.014833333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9265,10 +9265,10 @@
         <v>1.04</v>
       </c>
       <c r="F254" t="n">
-        <v>5788.269</v>
+        <v>5228.3653</v>
       </c>
       <c r="G254" t="n">
-        <v>1.033499999999999</v>
+        <v>1.015333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9300,10 +9300,10 @@
         <v>1.04</v>
       </c>
       <c r="F255" t="n">
-        <v>32</v>
+        <v>5788.269</v>
       </c>
       <c r="G255" t="n">
-        <v>1.033999999999999</v>
+        <v>1.015833333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,28 +9323,28 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="C256" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D256" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E256" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="F256" t="n">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="G256" t="n">
-        <v>1.035499999999999</v>
+        <v>1.016333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9370,10 +9370,10 @@
         <v>1.05</v>
       </c>
       <c r="F257" t="n">
-        <v>941.1427</v>
+        <v>220</v>
       </c>
       <c r="G257" t="n">
-        <v>1.036499999999999</v>
+        <v>1.016999999999999</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9405,16 +9405,16 @@
         <v>1.05</v>
       </c>
       <c r="F258" t="n">
-        <v>2919103.8095</v>
+        <v>941.1427</v>
       </c>
       <c r="G258" t="n">
-        <v>1.037999999999999</v>
+        <v>1.017833333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9431,25 +9431,25 @@
         <v>1.05</v>
       </c>
       <c r="C259" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D259" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="E259" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F259" t="n">
-        <v>1239504.5603</v>
+        <v>2919103.8095</v>
       </c>
       <c r="G259" t="n">
-        <v>1.039499999999999</v>
+        <v>1.018666666666666</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -9463,10 +9463,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="C260" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D260" t="n">
         <v>1.06</v>
@@ -9475,16 +9475,16 @@
         <v>1.04</v>
       </c>
       <c r="F260" t="n">
-        <v>1210772.5245</v>
+        <v>1239504.5603</v>
       </c>
       <c r="G260" t="n">
-        <v>1.040999999999999</v>
+        <v>1.019333333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -9501,25 +9501,25 @@
         <v>1.06</v>
       </c>
       <c r="C261" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D261" t="n">
         <v>1.06</v>
       </c>
       <c r="E261" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F261" t="n">
-        <v>220</v>
+        <v>1210772.5245</v>
       </c>
       <c r="G261" t="n">
-        <v>1.042499999999999</v>
+        <v>1.019666666666666</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -9539,22 +9539,22 @@
         <v>1.06</v>
       </c>
       <c r="D262" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="E262" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F262" t="n">
-        <v>155200</v>
+        <v>220</v>
       </c>
       <c r="G262" t="n">
-        <v>1.043499999999999</v>
+        <v>1.020333333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
@@ -9574,16 +9574,16 @@
         <v>1.06</v>
       </c>
       <c r="D263" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="E263" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F263" t="n">
-        <v>10</v>
+        <v>155200</v>
       </c>
       <c r="G263" t="n">
-        <v>1.044499999999999</v>
+        <v>1.020999999999999</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9615,16 +9615,16 @@
         <v>1.06</v>
       </c>
       <c r="F264" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G264" t="n">
-        <v>1.045499999999999</v>
+        <v>1.021666666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -9638,7 +9638,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C265" t="n">
         <v>1.06</v>
@@ -9647,19 +9647,19 @@
         <v>1.06</v>
       </c>
       <c r="E265" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F265" t="n">
-        <v>51385.9359</v>
+        <v>850</v>
       </c>
       <c r="G265" t="n">
-        <v>1.045499999999999</v>
+        <v>1.022499999999999</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -9673,7 +9673,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="C266" t="n">
         <v>1.06</v>
@@ -9685,16 +9685,16 @@
         <v>1.04</v>
       </c>
       <c r="F266" t="n">
-        <v>39071.374</v>
+        <v>51385.9359</v>
       </c>
       <c r="G266" t="n">
-        <v>1.046999999999999</v>
+        <v>1.023333333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -9708,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C267" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D267" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E267" t="n">
         <v>1.04</v>
       </c>
       <c r="F267" t="n">
-        <v>50594.7788</v>
+        <v>39071.374</v>
       </c>
       <c r="G267" t="n">
-        <v>1.046999999999999</v>
+        <v>1.024166666666666</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="C268" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="D268" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="E268" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="F268" t="n">
-        <v>687.799</v>
+        <v>50594.7788</v>
       </c>
       <c r="G268" t="n">
-        <v>1.047999999999999</v>
+        <v>1.024666666666666</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="C269" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D269" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E269" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F269" t="n">
-        <v>72215.7187</v>
+        <v>687.799</v>
       </c>
       <c r="G269" t="n">
-        <v>1.047999999999999</v>
+        <v>1.0255</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9825,10 +9825,10 @@
         <v>1.04</v>
       </c>
       <c r="F270" t="n">
-        <v>44148.2452</v>
+        <v>72215.7187</v>
       </c>
       <c r="G270" t="n">
-        <v>1.048999999999999</v>
+        <v>1.026</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9860,10 +9860,10 @@
         <v>1.04</v>
       </c>
       <c r="F271" t="n">
-        <v>206518.9742</v>
+        <v>44148.2452</v>
       </c>
       <c r="G271" t="n">
-        <v>1.048999999999999</v>
+        <v>1.026666666666666</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>1.04</v>
       </c>
       <c r="C272" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D272" t="n">
         <v>1.04</v>
       </c>
       <c r="E272" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F272" t="n">
-        <v>1936593.4899</v>
+        <v>206518.9742</v>
       </c>
       <c r="G272" t="n">
-        <v>1.048999999999999</v>
+        <v>1.027333333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9918,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="C273" t="n">
         <v>1.03</v>
       </c>
       <c r="D273" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="E273" t="n">
         <v>1.03</v>
       </c>
       <c r="F273" t="n">
-        <v>8000</v>
+        <v>1936593.4899</v>
       </c>
       <c r="G273" t="n">
-        <v>1.048499999999999</v>
+        <v>1.027499999999999</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>1.03</v>
       </c>
       <c r="F274" t="n">
-        <v>119314.0514</v>
+        <v>8000</v>
       </c>
       <c r="G274" t="n">
-        <v>1.047999999999999</v>
+        <v>1.028</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10000,10 +10000,10 @@
         <v>1.03</v>
       </c>
       <c r="F275" t="n">
-        <v>2700000</v>
+        <v>119314.0514</v>
       </c>
       <c r="G275" t="n">
-        <v>1.047499999999999</v>
+        <v>1.028333333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>1.03</v>
       </c>
       <c r="F276" t="n">
-        <v>66080.724</v>
+        <v>2700000</v>
       </c>
       <c r="G276" t="n">
-        <v>1.046499999999999</v>
+        <v>1.028833333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C277" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D277" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E277" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="F277" t="n">
-        <v>607440.7994</v>
+        <v>66080.724</v>
       </c>
       <c r="G277" t="n">
-        <v>1.044999999999999</v>
+        <v>1.029333333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10096,19 +10096,19 @@
         <v>1.02</v>
       </c>
       <c r="C278" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="D278" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E278" t="n">
         <v>1.02</v>
       </c>
       <c r="F278" t="n">
-        <v>1480230.5148</v>
+        <v>607440.7994</v>
       </c>
       <c r="G278" t="n">
-        <v>1.043499999999999</v>
+        <v>1.029666666666666</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="C279" t="n">
         <v>1.03</v>
@@ -10137,13 +10137,13 @@
         <v>1.03</v>
       </c>
       <c r="E279" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F279" t="n">
-        <v>998285.4368</v>
+        <v>1480230.5148</v>
       </c>
       <c r="G279" t="n">
-        <v>1.042499999999999</v>
+        <v>1.030166666666666</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="C280" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D280" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="E280" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F280" t="n">
-        <v>587804.4036</v>
+        <v>998285.4368</v>
       </c>
       <c r="G280" t="n">
-        <v>1.040499999999999</v>
+        <v>1.030666666666666</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10201,7 +10201,7 @@
         <v>1.02</v>
       </c>
       <c r="C281" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D281" t="n">
         <v>1.02</v>
@@ -10210,10 +10210,10 @@
         <v>1.01</v>
       </c>
       <c r="F281" t="n">
-        <v>2129882.61</v>
+        <v>587804.4036</v>
       </c>
       <c r="G281" t="n">
-        <v>1.038499999999999</v>
+        <v>1.031</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C282" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="D282" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E282" t="n">
         <v>1.01</v>
       </c>
       <c r="F282" t="n">
-        <v>898789.2979</v>
+        <v>2129882.61</v>
       </c>
       <c r="G282" t="n">
-        <v>1.035999999999999</v>
+        <v>1.031166666666666</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,7 +10268,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="C283" t="n">
         <v>1.03</v>
@@ -10277,13 +10277,13 @@
         <v>1.03</v>
       </c>
       <c r="E283" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="F283" t="n">
-        <v>250</v>
+        <v>898789.2979</v>
       </c>
       <c r="G283" t="n">
-        <v>1.0345</v>
+        <v>1.031666666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="C284" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="D284" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="E284" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="F284" t="n">
-        <v>1119419.66</v>
+        <v>250</v>
       </c>
       <c r="G284" t="n">
-        <v>1.032</v>
+        <v>1.032166666666666</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10338,22 +10338,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
       </c>
       <c r="F285" t="n">
-        <v>583668.8539</v>
+        <v>1119419.66</v>
       </c>
       <c r="G285" t="n">
-        <v>1.03</v>
+        <v>1.032166666666666</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10385,10 +10385,10 @@
         <v>1</v>
       </c>
       <c r="F286" t="n">
-        <v>1127868.8801</v>
+        <v>583668.8539</v>
       </c>
       <c r="G286" t="n">
-        <v>1.027</v>
+        <v>1.032166666666666</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10420,10 +10420,10 @@
         <v>1</v>
       </c>
       <c r="F287" t="n">
-        <v>275000</v>
+        <v>1127868.8801</v>
       </c>
       <c r="G287" t="n">
-        <v>1.025</v>
+        <v>1.032166666666666</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10455,10 +10455,10 @@
         <v>1</v>
       </c>
       <c r="F288" t="n">
-        <v>58443.9335</v>
+        <v>275000</v>
       </c>
       <c r="G288" t="n">
-        <v>1.022</v>
+        <v>1.032166666666666</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10490,19 +10490,23 @@
         <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>340441.5457</v>
+        <v>58443.9335</v>
       </c>
       <c r="G289" t="n">
-        <v>1.02</v>
+        <v>1.032</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
       <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
@@ -10525,20 +10529,28 @@
         <v>1</v>
       </c>
       <c r="F290" t="n">
-        <v>100000</v>
+        <v>340441.5457</v>
       </c>
       <c r="G290" t="n">
-        <v>1.018</v>
+        <v>1.031833333333333</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10551,29 +10563,37 @@
         <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E291" t="n">
         <v>1</v>
       </c>
       <c r="F291" t="n">
-        <v>25266.3366</v>
+        <v>100000</v>
       </c>
       <c r="G291" t="n">
-        <v>1.016</v>
+        <v>1.031666666666667</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1</v>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10586,29 +10606,37 @@
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
       </c>
       <c r="F292" t="n">
-        <v>214313.0645</v>
+        <v>25266.3366</v>
       </c>
       <c r="G292" t="n">
-        <v>1.014</v>
+        <v>1.0315</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10621,19 +10649,19 @@
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D293" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
       </c>
       <c r="F293" t="n">
-        <v>500263.5668</v>
+        <v>214313.0645</v>
       </c>
       <c r="G293" t="n">
-        <v>1.0125</v>
+        <v>1.031166666666666</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10642,8 +10670,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10656,29 +10690,37 @@
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
       </c>
       <c r="F294" t="n">
-        <v>1393550.6341</v>
+        <v>500263.5668</v>
       </c>
       <c r="G294" t="n">
-        <v>1.011</v>
+        <v>1.031166666666666</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10700,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="F295" t="n">
-        <v>1537267.0287</v>
+        <v>1393550.6341</v>
       </c>
       <c r="G295" t="n">
-        <v>1.0095</v>
+        <v>1.030666666666666</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10712,8 +10754,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10726,19 +10774,19 @@
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D296" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F296" t="n">
-        <v>90177.39999999999</v>
+        <v>1537267.0287</v>
       </c>
       <c r="G296" t="n">
-        <v>1.008</v>
+        <v>1.030166666666666</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10747,8 +10795,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10758,22 +10812,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="D297" t="n">
         <v>1.02</v>
       </c>
       <c r="E297" t="n">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="F297" t="n">
-        <v>697.799</v>
+        <v>90177.39999999999</v>
       </c>
       <c r="G297" t="n">
-        <v>1.008</v>
+        <v>1.029666666666666</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10782,8 +10836,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10793,36 +10853,40 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F298" t="n">
+        <v>697.799</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1.0295</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
         <v>0.99</v>
       </c>
-      <c r="C298" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D298" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E298" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F298" t="n">
-        <v>93386.342</v>
-      </c>
-      <c r="G298" t="n">
-        <v>1.0065</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="n">
-        <v>1.02</v>
-      </c>
       <c r="K298" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10835,35 +10899,33 @@
         <v>0.99</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E299" t="n">
         <v>0.99</v>
       </c>
       <c r="F299" t="n">
-        <v>2161476</v>
+        <v>93386.342</v>
       </c>
       <c r="G299" t="n">
-        <v>1.0045</v>
+        <v>1.029</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M299" t="n">
@@ -10875,7 +10937,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -10884,25 +10946,23 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F300" t="n">
-        <v>1160</v>
+        <v>2161476</v>
       </c>
       <c r="G300" t="n">
-        <v>1.0035</v>
+        <v>1.028666666666666</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>1</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -10918,34 +10978,32 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D301" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F301" t="n">
-        <v>20184.96</v>
+        <v>1160</v>
       </c>
       <c r="G301" t="n">
-        <v>1.002</v>
+        <v>1.028166666666666</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>1</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -10973,10 +11031,10 @@
         <v>0.99</v>
       </c>
       <c r="F302" t="n">
-        <v>30.2779</v>
+        <v>20184.96</v>
       </c>
       <c r="G302" t="n">
-        <v>1.000999999999999</v>
+        <v>1.0275</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10986,7 +11044,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11002,7 +11060,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C303" t="n">
         <v>0.99</v>
@@ -11011,13 +11069,13 @@
         <v>0.99</v>
       </c>
       <c r="E303" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F303" t="n">
-        <v>14870.2133</v>
+        <v>30.2779</v>
       </c>
       <c r="G303" t="n">
-        <v>0.9984999999999994</v>
+        <v>1.026833333333333</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11027,7 +11085,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11055,10 +11113,10 @@
         <v>0.98</v>
       </c>
       <c r="F304" t="n">
-        <v>72711.59940000001</v>
+        <v>14870.2133</v>
       </c>
       <c r="G304" t="n">
-        <v>0.9969999999999993</v>
+        <v>1.026</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11068,7 +11126,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11084,7 +11142,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C305" t="n">
         <v>0.99</v>
@@ -11093,13 +11151,13 @@
         <v>0.99</v>
       </c>
       <c r="E305" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F305" t="n">
-        <v>6469</v>
+        <v>72711.59940000001</v>
       </c>
       <c r="G305" t="n">
-        <v>0.9964999999999993</v>
+        <v>1.025333333333333</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11109,7 +11167,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11128,19 +11186,19 @@
         <v>0.99</v>
       </c>
       <c r="C306" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D306" t="n">
         <v>0.99</v>
       </c>
       <c r="E306" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F306" t="n">
-        <v>802639.3265</v>
+        <v>6469</v>
       </c>
       <c r="G306" t="n">
-        <v>0.9959999999999992</v>
+        <v>1.024666666666666</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11150,7 +11208,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11169,19 +11227,19 @@
         <v>0.99</v>
       </c>
       <c r="C307" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D307" t="n">
         <v>0.99</v>
       </c>
       <c r="E307" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F307" t="n">
-        <v>182557</v>
+        <v>802639.3265</v>
       </c>
       <c r="G307" t="n">
-        <v>0.9954999999999992</v>
+        <v>1.023833333333333</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11191,7 +11249,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11207,22 +11265,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C308" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D308" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E308" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F308" t="n">
-        <v>89843.0537</v>
+        <v>182557</v>
       </c>
       <c r="G308" t="n">
-        <v>0.9944999999999992</v>
+        <v>1.022833333333333</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11232,7 +11290,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11248,22 +11306,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C309" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D309" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E309" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F309" t="n">
-        <v>50012</v>
+        <v>89843.0537</v>
       </c>
       <c r="G309" t="n">
-        <v>0.9939999999999991</v>
+        <v>1.022</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11273,7 +11331,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11301,10 +11359,10 @@
         <v>0.99</v>
       </c>
       <c r="F310" t="n">
-        <v>100000</v>
+        <v>50012</v>
       </c>
       <c r="G310" t="n">
-        <v>0.9934999999999989</v>
+        <v>1.0215</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11314,7 +11372,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11342,10 +11400,10 @@
         <v>0.99</v>
       </c>
       <c r="F311" t="n">
-        <v>553778.6467</v>
+        <v>100000</v>
       </c>
       <c r="G311" t="n">
-        <v>0.9929999999999989</v>
+        <v>1.020666666666666</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11355,7 +11413,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11374,19 +11432,19 @@
         <v>0.99</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E312" t="n">
         <v>0.99</v>
       </c>
       <c r="F312" t="n">
-        <v>199.5</v>
+        <v>553778.6467</v>
       </c>
       <c r="G312" t="n">
-        <v>0.9924999999999988</v>
+        <v>1.019833333333333</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11396,7 +11454,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11415,31 +11473,29 @@
         <v>0.99</v>
       </c>
       <c r="C313" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
         <v>0.99</v>
       </c>
       <c r="F313" t="n">
-        <v>1455908.0124</v>
+        <v>199.5</v>
       </c>
       <c r="G313" t="n">
-        <v>0.9919999999999988</v>
+        <v>1.0195</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>1</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11467,10 +11523,10 @@
         <v>0.99</v>
       </c>
       <c r="F314" t="n">
-        <v>100</v>
+        <v>1455908.0124</v>
       </c>
       <c r="G314" t="n">
-        <v>0.9914999999999987</v>
+        <v>1.018666666666666</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11480,7 +11536,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11508,10 +11564,10 @@
         <v>0.99</v>
       </c>
       <c r="F315" t="n">
-        <v>158502.0253</v>
+        <v>100</v>
       </c>
       <c r="G315" t="n">
-        <v>0.9909999999999985</v>
+        <v>1.017833333333333</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11521,7 +11577,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11549,10 +11605,10 @@
         <v>0.99</v>
       </c>
       <c r="F316" t="n">
-        <v>49404.8698</v>
+        <v>158502.0253</v>
       </c>
       <c r="G316" t="n">
-        <v>0.9904999999999985</v>
+        <v>1.017</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11562,7 +11618,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11590,10 +11646,10 @@
         <v>0.99</v>
       </c>
       <c r="F317" t="n">
-        <v>100314.9921</v>
+        <v>49404.8698</v>
       </c>
       <c r="G317" t="n">
-        <v>0.9889999999999984</v>
+        <v>1.016</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11603,7 +11659,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11622,19 +11678,19 @@
         <v>0.99</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E318" t="n">
         <v>0.99</v>
       </c>
       <c r="F318" t="n">
-        <v>1100</v>
+        <v>100314.9921</v>
       </c>
       <c r="G318" t="n">
-        <v>0.9889999999999984</v>
+        <v>1.015</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11644,7 +11700,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11672,10 +11728,10 @@
         <v>0.99</v>
       </c>
       <c r="F319" t="n">
-        <v>183312.519</v>
+        <v>1100</v>
       </c>
       <c r="G319" t="n">
-        <v>0.9889999999999984</v>
+        <v>1.014166666666667</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11685,7 +11741,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11713,10 +11769,10 @@
         <v>0.99</v>
       </c>
       <c r="F320" t="n">
-        <v>181026.6488</v>
+        <v>183312.519</v>
       </c>
       <c r="G320" t="n">
-        <v>0.9884999999999984</v>
+        <v>1.013166666666667</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11726,7 +11782,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11742,10 +11798,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C321" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D321" t="n">
         <v>1</v>
@@ -11754,10 +11810,10 @@
         <v>0.99</v>
       </c>
       <c r="F321" t="n">
-        <v>3169894.0825</v>
+        <v>181026.6488</v>
       </c>
       <c r="G321" t="n">
-        <v>0.9889999999999984</v>
+        <v>1.0125</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11767,7 +11823,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11783,22 +11839,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" t="n">
         <v>0.99</v>
       </c>
-      <c r="C322" t="n">
-        <v>1.02</v>
-      </c>
       <c r="D322" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E322" t="n">
         <v>0.99</v>
       </c>
       <c r="F322" t="n">
-        <v>100677.96</v>
+        <v>3169894.0825</v>
       </c>
       <c r="G322" t="n">
-        <v>0.9889999999999984</v>
+        <v>1.011333333333333</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11808,7 +11864,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -11824,7 +11880,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C323" t="n">
         <v>1.02</v>
@@ -11833,13 +11889,13 @@
         <v>1.02</v>
       </c>
       <c r="E323" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F323" t="n">
-        <v>232580.17</v>
+        <v>100677.96</v>
       </c>
       <c r="G323" t="n">
-        <v>0.9899999999999984</v>
+        <v>1.010666666666667</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11849,7 +11905,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -11877,10 +11933,10 @@
         <v>1</v>
       </c>
       <c r="F324" t="n">
-        <v>100010</v>
+        <v>232580.17</v>
       </c>
       <c r="G324" t="n">
-        <v>0.9909999999999984</v>
+        <v>1.01</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11890,7 +11946,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -11918,10 +11974,10 @@
         <v>1</v>
       </c>
       <c r="F325" t="n">
-        <v>3192.31</v>
+        <v>100010</v>
       </c>
       <c r="G325" t="n">
-        <v>0.9914999999999985</v>
+        <v>1.009333333333333</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11931,7 +11987,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -11947,7 +12003,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
         <v>1.02</v>
@@ -11959,10 +12015,10 @@
         <v>1</v>
       </c>
       <c r="F326" t="n">
-        <v>1294.53</v>
+        <v>3192.31</v>
       </c>
       <c r="G326" t="n">
-        <v>0.9929999999999986</v>
+        <v>1.008666666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11972,7 +12028,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -11988,22 +12044,22 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E327" t="n">
         <v>1</v>
       </c>
       <c r="F327" t="n">
-        <v>25000</v>
+        <v>1294.53</v>
       </c>
       <c r="G327" t="n">
-        <v>0.9934999999999986</v>
+        <v>1.008</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -12013,7 +12069,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12029,22 +12085,22 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E328" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="F328" t="n">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="G328" t="n">
-        <v>0.9954999999999986</v>
+        <v>1.007333333333333</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -12054,7 +12110,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12070,22 +12126,22 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F329" t="n">
-        <v>292770.058</v>
+        <v>10</v>
       </c>
       <c r="G329" t="n">
-        <v>0.9959999999999987</v>
+        <v>1.006666666666667</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -12095,7 +12151,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12111,22 +12167,22 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D330" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="E330" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F330" t="n">
-        <v>744828.5572</v>
+        <v>292770.058</v>
       </c>
       <c r="G330" t="n">
-        <v>0.9974999999999987</v>
+        <v>1.006</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -12136,7 +12192,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12152,22 +12208,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="C331" t="n">
         <v>0.99</v>
       </c>
       <c r="D331" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="E331" t="n">
         <v>0.99</v>
       </c>
       <c r="F331" t="n">
-        <v>711090.4553</v>
+        <v>744828.5572</v>
       </c>
       <c r="G331" t="n">
-        <v>0.9974999999999987</v>
+        <v>1.005166666666667</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12177,7 +12233,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12193,22 +12249,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="C332" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="D332" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E332" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F332" t="n">
-        <v>10.11</v>
+        <v>711090.4553</v>
       </c>
       <c r="G332" t="n">
-        <v>0.9984999999999988</v>
+        <v>1.004333333333334</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12218,7 +12274,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12246,10 +12302,10 @@
         <v>1.01</v>
       </c>
       <c r="F333" t="n">
-        <v>10</v>
+        <v>10.11</v>
       </c>
       <c r="G333" t="n">
-        <v>0.9994999999999991</v>
+        <v>1.004</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12259,7 +12315,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12275,22 +12331,22 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="C334" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="D334" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="E334" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F334" t="n">
-        <v>499920.88</v>
+        <v>10</v>
       </c>
       <c r="G334" t="n">
-        <v>0.9994999999999991</v>
+        <v>1.003666666666667</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12300,7 +12356,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12328,10 +12384,10 @@
         <v>0.99</v>
       </c>
       <c r="F335" t="n">
-        <v>196187.1272</v>
+        <v>499920.88</v>
       </c>
       <c r="G335" t="n">
-        <v>0.9994999999999991</v>
+        <v>1.003</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12341,7 +12397,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12357,22 +12413,22 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F336" t="n">
-        <v>2315833.7286</v>
+        <v>196187.1272</v>
       </c>
       <c r="G336" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.002333333333334</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12382,7 +12438,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12398,22 +12454,22 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F337" t="n">
-        <v>17.1</v>
+        <v>2315833.7286</v>
       </c>
       <c r="G337" t="n">
-        <v>1.000999999999999</v>
+        <v>1.001833333333333</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12423,7 +12479,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12439,22 +12495,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C338" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E338" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="F338" t="n">
-        <v>200000</v>
+        <v>17.1</v>
       </c>
       <c r="G338" t="n">
-        <v>1.001499999999999</v>
+        <v>1.001666666666667</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12464,7 +12520,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12492,10 +12548,10 @@
         <v>0.99</v>
       </c>
       <c r="F339" t="n">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G339" t="n">
-        <v>1.001999999999999</v>
+        <v>1.001</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12505,7 +12561,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12521,22 +12577,22 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>0.99</v>
       </c>
       <c r="D340" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E340" t="n">
         <v>0.99</v>
       </c>
       <c r="F340" t="n">
-        <v>195791.9554</v>
+        <v>100000</v>
       </c>
       <c r="G340" t="n">
-        <v>1.001999999999999</v>
+        <v>1.000333333333333</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12546,7 +12602,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12574,10 +12630,10 @@
         <v>0.99</v>
       </c>
       <c r="F341" t="n">
-        <v>125000</v>
+        <v>195791.9554</v>
       </c>
       <c r="G341" t="n">
-        <v>1.001499999999999</v>
+        <v>0.9998333333333334</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12587,7 +12643,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12606,19 +12662,19 @@
         <v>0.99</v>
       </c>
       <c r="C342" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="D342" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E342" t="n">
         <v>0.99</v>
       </c>
       <c r="F342" t="n">
-        <v>74909.87</v>
+        <v>125000</v>
       </c>
       <c r="G342" t="n">
-        <v>1.001499999999999</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12628,7 +12684,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12644,22 +12700,22 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C343" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E343" t="n">
         <v>0.99</v>
       </c>
       <c r="F343" t="n">
-        <v>796837.9399999999</v>
+        <v>74909.87</v>
       </c>
       <c r="G343" t="n">
-        <v>1.001499999999999</v>
+        <v>0.9991666666666668</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12669,7 +12725,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12685,22 +12741,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>0.99</v>
       </c>
       <c r="D344" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E344" t="n">
         <v>0.99</v>
       </c>
       <c r="F344" t="n">
-        <v>50000</v>
+        <v>796837.9399999999</v>
       </c>
       <c r="G344" t="n">
-        <v>1.000999999999999</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12710,7 +12766,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12729,19 +12785,19 @@
         <v>0.99</v>
       </c>
       <c r="C345" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="D345" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="E345" t="n">
         <v>0.99</v>
       </c>
       <c r="F345" t="n">
-        <v>25020</v>
+        <v>50000</v>
       </c>
       <c r="G345" t="n">
-        <v>1.000499999999999</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12751,7 +12807,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12767,22 +12823,22 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C346" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E346" t="n">
         <v>0.99</v>
       </c>
       <c r="F346" t="n">
-        <v>179563.65</v>
+        <v>25020</v>
       </c>
       <c r="G346" t="n">
-        <v>0.9994999999999992</v>
+        <v>0.9985000000000001</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12792,7 +12848,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12808,22 +12864,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>0.99</v>
       </c>
       <c r="D347" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>0.99</v>
       </c>
       <c r="F347" t="n">
-        <v>169638.54</v>
+        <v>179563.65</v>
       </c>
       <c r="G347" t="n">
-        <v>0.9989999999999991</v>
+        <v>0.9983333333333334</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12833,7 +12889,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -12852,19 +12908,19 @@
         <v>0.99</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E348" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F348" t="n">
-        <v>2265708</v>
+        <v>169638.54</v>
       </c>
       <c r="G348" t="n">
-        <v>0.9974999999999991</v>
+        <v>0.9981666666666668</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12874,7 +12930,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -12893,19 +12949,19 @@
         <v>0.99</v>
       </c>
       <c r="C349" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F349" t="n">
-        <v>129881.3131</v>
+        <v>2265708</v>
       </c>
       <c r="G349" t="n">
-        <v>0.996999999999999</v>
+        <v>0.9981666666666668</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12915,7 +12971,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -12943,10 +12999,10 @@
         <v>0.99</v>
       </c>
       <c r="F350" t="n">
-        <v>129881.8181</v>
+        <v>129881.3131</v>
       </c>
       <c r="G350" t="n">
-        <v>0.9954999999999989</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12956,7 +13012,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -12984,10 +13040,10 @@
         <v>0.99</v>
       </c>
       <c r="F351" t="n">
-        <v>567193.9393</v>
+        <v>129881.8181</v>
       </c>
       <c r="G351" t="n">
-        <v>0.9954999999999989</v>
+        <v>0.9978333333333336</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -12997,7 +13053,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13013,22 +13069,22 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C352" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D352" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E352" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F352" t="n">
-        <v>259113.7234</v>
+        <v>567193.9393</v>
       </c>
       <c r="G352" t="n">
-        <v>0.9939999999999989</v>
+        <v>0.9975000000000003</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -13038,7 +13094,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13054,22 +13110,22 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C353" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="D353" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="E353" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F353" t="n">
-        <v>867033.344</v>
+        <v>259113.7234</v>
       </c>
       <c r="G353" t="n">
-        <v>0.9929999999999988</v>
+        <v>0.9971666666666669</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -13079,7 +13135,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -13098,19 +13154,19 @@
         <v>0.99</v>
       </c>
       <c r="C354" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="D354" t="n">
         <v>1.01</v>
       </c>
       <c r="E354" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F354" t="n">
-        <v>1933251.6149</v>
+        <v>867033.344</v>
       </c>
       <c r="G354" t="n">
-        <v>0.9929999999999988</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -13120,7 +13176,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13136,22 +13192,22 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D355" t="n">
         <v>1.01</v>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>1933251.6149</v>
       </c>
       <c r="G355" t="n">
-        <v>0.9939999999999989</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -13161,7 +13217,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13177,22 +13233,22 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="C356" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D356" t="n">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
       <c r="E356" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>528446.0153</v>
+        <v>200</v>
       </c>
       <c r="G356" t="n">
-        <v>0.9929999999999989</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -13202,7 +13258,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13221,19 +13277,19 @@
         <v>0.98</v>
       </c>
       <c r="C357" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D357" t="n">
         <v>0.98</v>
       </c>
       <c r="E357" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F357" t="n">
-        <v>1365270.4198</v>
+        <v>528446.0153</v>
       </c>
       <c r="G357" t="n">
-        <v>0.9914999999999988</v>
+        <v>0.9963333333333334</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -13243,7 +13299,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13259,22 +13315,22 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C358" t="n">
         <v>0.97</v>
       </c>
       <c r="D358" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E358" t="n">
         <v>0.97</v>
       </c>
       <c r="F358" t="n">
-        <v>761376.0734</v>
+        <v>1365270.4198</v>
       </c>
       <c r="G358" t="n">
-        <v>0.9899999999999988</v>
+        <v>0.9954999999999999</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -13284,7 +13340,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13312,10 +13368,10 @@
         <v>0.97</v>
       </c>
       <c r="F359" t="n">
-        <v>2090.37</v>
+        <v>761376.0734</v>
       </c>
       <c r="G359" t="n">
-        <v>0.9884999999999987</v>
+        <v>0.9951666666666665</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -13325,7 +13381,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13353,10 +13409,10 @@
         <v>0.97</v>
       </c>
       <c r="F360" t="n">
-        <v>6939.59</v>
+        <v>2090.37</v>
       </c>
       <c r="G360" t="n">
-        <v>0.9874999999999987</v>
+        <v>0.9946666666666666</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -13366,7 +13422,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13382,22 +13438,22 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="C361" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="D361" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E361" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F361" t="n">
-        <v>10</v>
+        <v>6939.59</v>
       </c>
       <c r="G361" t="n">
-        <v>0.9874999999999987</v>
+        <v>0.9941666666666665</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13407,7 +13463,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13423,22 +13479,22 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="C362" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D362" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E362" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F362" t="n">
-        <v>687.799</v>
+        <v>10</v>
       </c>
       <c r="G362" t="n">
-        <v>0.9869999999999989</v>
+        <v>0.9941666666666665</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13448,7 +13504,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -13464,22 +13520,22 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C363" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D363" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E363" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F363" t="n">
-        <v>465019.4931</v>
+        <v>687.799</v>
       </c>
       <c r="G363" t="n">
-        <v>0.9854999999999988</v>
+        <v>0.9939999999999998</v>
       </c>
       <c r="H363" t="n">
         <v>0</v>
@@ -13489,7 +13545,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13505,22 +13561,22 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C364" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D364" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="E364" t="n">
         <v>0.97</v>
       </c>
       <c r="F364" t="n">
-        <v>51311.4514</v>
+        <v>465019.4931</v>
       </c>
       <c r="G364" t="n">
-        <v>0.9849999999999989</v>
+        <v>0.9939999999999998</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -13530,7 +13586,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13546,22 +13602,22 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C365" t="n">
         <v>0.97</v>
-      </c>
-      <c r="C365" t="n">
-        <v>0.98</v>
       </c>
       <c r="D365" t="n">
         <v>0.98</v>
       </c>
       <c r="E365" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F365" t="n">
-        <v>6682957.0627</v>
+        <v>51311.4514</v>
       </c>
       <c r="G365" t="n">
-        <v>0.9839999999999989</v>
+        <v>0.9936666666666664</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13571,7 +13627,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13587,7 +13643,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C366" t="n">
         <v>0.98</v>
@@ -13596,13 +13652,13 @@
         <v>0.98</v>
       </c>
       <c r="E366" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F366" t="n">
-        <v>369725.5102</v>
+        <v>6682957.0627</v>
       </c>
       <c r="G366" t="n">
-        <v>0.982999999999999</v>
+        <v>0.9934999999999996</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -13612,7 +13668,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13628,22 +13684,22 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C367" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D367" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E367" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F367" t="n">
-        <v>12635.4648</v>
+        <v>369725.5102</v>
       </c>
       <c r="G367" t="n">
-        <v>0.981999999999999</v>
+        <v>0.9934999999999996</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -13653,7 +13709,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13672,19 +13728,19 @@
         <v>0.97</v>
       </c>
       <c r="C368" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D368" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E368" t="n">
         <v>0.97</v>
       </c>
       <c r="F368" t="n">
-        <v>2266278.635</v>
+        <v>12635.4648</v>
       </c>
       <c r="G368" t="n">
-        <v>0.980999999999999</v>
+        <v>0.9931666666666662</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -13694,7 +13750,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13713,19 +13769,19 @@
         <v>0.97</v>
       </c>
       <c r="C369" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D369" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E369" t="n">
         <v>0.97</v>
       </c>
       <c r="F369" t="n">
-        <v>10</v>
+        <v>2266278.635</v>
       </c>
       <c r="G369" t="n">
-        <v>0.979999999999999</v>
+        <v>0.9931666666666662</v>
       </c>
       <c r="H369" t="n">
         <v>0</v>
@@ -13735,7 +13791,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13754,19 +13810,19 @@
         <v>0.97</v>
       </c>
       <c r="C370" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D370" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E370" t="n">
         <v>0.97</v>
       </c>
       <c r="F370" t="n">
-        <v>2333454.6001</v>
+        <v>10</v>
       </c>
       <c r="G370" t="n">
-        <v>0.978999999999999</v>
+        <v>0.9928333333333329</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -13776,7 +13832,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13792,7 +13848,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C371" t="n">
         <v>0.98</v>
@@ -13801,13 +13857,13 @@
         <v>0.98</v>
       </c>
       <c r="E371" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F371" t="n">
-        <v>250</v>
+        <v>2333454.6001</v>
       </c>
       <c r="G371" t="n">
-        <v>0.9784999999999991</v>
+        <v>0.9926666666666661</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -13817,7 +13873,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13833,22 +13889,22 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="C372" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D372" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E372" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F372" t="n">
-        <v>522585.7324</v>
+        <v>250</v>
       </c>
       <c r="G372" t="n">
-        <v>0.9779999999999991</v>
+        <v>0.9924999999999994</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
@@ -13858,7 +13914,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13880,16 +13936,16 @@
         <v>0.97</v>
       </c>
       <c r="D373" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E373" t="n">
         <v>0.97</v>
       </c>
       <c r="F373" t="n">
-        <v>2161746.0581</v>
+        <v>522585.7324</v>
       </c>
       <c r="G373" t="n">
-        <v>0.9769999999999991</v>
+        <v>0.9919999999999993</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
@@ -13899,7 +13955,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -13921,16 +13977,16 @@
         <v>0.97</v>
       </c>
       <c r="D374" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E374" t="n">
         <v>0.97</v>
       </c>
       <c r="F374" t="n">
-        <v>1025000</v>
+        <v>2161746.0581</v>
       </c>
       <c r="G374" t="n">
-        <v>0.9759999999999991</v>
+        <v>0.9916666666666659</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -13940,7 +13996,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -13959,19 +14015,19 @@
         <v>0.97</v>
       </c>
       <c r="C375" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D375" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E375" t="n">
         <v>0.97</v>
       </c>
       <c r="F375" t="n">
-        <v>163770.5263</v>
+        <v>1025000</v>
       </c>
       <c r="G375" t="n">
-        <v>0.973999999999999</v>
+        <v>0.9913333333333326</v>
       </c>
       <c r="H375" t="n">
         <v>0</v>
@@ -13981,7 +14037,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -13997,7 +14053,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="C376" t="n">
         <v>0.98</v>
@@ -14006,13 +14062,13 @@
         <v>0.98</v>
       </c>
       <c r="E376" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F376" t="n">
-        <v>100000</v>
+        <v>163770.5263</v>
       </c>
       <c r="G376" t="n">
-        <v>0.973999999999999</v>
+        <v>0.9911666666666659</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -14022,7 +14078,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14050,10 +14106,10 @@
         <v>0.98</v>
       </c>
       <c r="F377" t="n">
-        <v>101001</v>
+        <v>100000</v>
       </c>
       <c r="G377" t="n">
-        <v>0.973999999999999</v>
+        <v>0.9909999999999991</v>
       </c>
       <c r="H377" t="n">
         <v>0</v>
@@ -14063,7 +14119,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -14091,10 +14147,10 @@
         <v>0.98</v>
       </c>
       <c r="F378" t="n">
-        <v>10</v>
+        <v>101001</v>
       </c>
       <c r="G378" t="n">
-        <v>0.974499999999999</v>
+        <v>0.9908333333333323</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -14104,7 +14160,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -14115,6 +14171,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F379" t="n">
+        <v>10</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.9904999999999989</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>1</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M379" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest OCN.xlsx
+++ b/BackTest/2019-10-30 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4509046.3664</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4509046.3664</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0.97</v>
@@ -521,7 +521,7 @@
         <v>4509046.3664</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0.97</v>
@@ -562,7 +562,7 @@
         <v>5312335.004</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0.97</v>
@@ -603,7 +603,7 @@
         <v>5312335.004</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0.98</v>
@@ -640,7 +640,7 @@
         <v>5387335.004</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0.98</v>
@@ -681,11 +681,9 @@
         <v>5387335.004</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0.98</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>-690702.9084225008</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2174,7 +2172,7 @@
         <v>-81015.45982250095</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2240,7 +2238,7 @@
         <v>-106793.604722501</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2273,7 +2271,7 @@
         <v>-133674.992722501</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2306,7 +2304,7 @@
         <v>-133663.992722501</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2339,7 +2337,7 @@
         <v>-193663.992722501</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2372,7 +2370,7 @@
         <v>-193663.992722501</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2405,7 +2403,7 @@
         <v>-163737.176022501</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2438,7 +2436,7 @@
         <v>58321.82397749904</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2471,7 +2469,7 @@
         <v>-21363.40402250097</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2669,7 +2667,7 @@
         <v>-322627.186222501</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2702,7 +2700,7 @@
         <v>-322627.186222501</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2735,7 +2733,7 @@
         <v>-333411.499922501</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2801,7 +2799,7 @@
         <v>-275531.976122501</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2834,7 +2832,7 @@
         <v>-275531.976122501</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2867,7 +2865,7 @@
         <v>-275531.976122501</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2900,7 +2898,7 @@
         <v>66630.73637749907</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2933,7 +2931,7 @@
         <v>-193369.2636225009</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2966,7 +2964,7 @@
         <v>-49645.92292250093</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2999,7 +2997,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3032,7 +3030,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3065,7 +3063,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3098,7 +3096,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3131,7 +3129,7 @@
         <v>-99634.72292250094</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3164,7 +3162,7 @@
         <v>-149634.7229225009</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3296,7 +3294,7 @@
         <v>-18843.69912250091</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3395,7 +3393,7 @@
         <v>-46556.18232250091</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3428,7 +3426,7 @@
         <v>-45603.80142250092</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3494,7 +3492,7 @@
         <v>-45529.41642250092</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4220,7 +4218,7 @@
         <v>1580425.304277499</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4253,7 +4251,7 @@
         <v>1580425.304277499</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4286,7 +4284,7 @@
         <v>1580425.304277499</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4319,7 +4317,7 @@
         <v>1580425.304277499</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4484,7 +4482,7 @@
         <v>-875731.0153225008</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4616,7 +4614,7 @@
         <v>-803468.8766225008</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4649,7 +4647,7 @@
         <v>-803468.8766225008</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4682,7 +4680,7 @@
         <v>-803435.8766225008</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4715,7 +4713,7 @@
         <v>-803435.8766225008</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4748,7 +4746,7 @@
         <v>-854888.9354225008</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4781,7 +4779,7 @@
         <v>-854888.9354225008</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4814,7 +4812,7 @@
         <v>-847976.9354225008</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4847,7 +4845,7 @@
         <v>-971837.6846225008</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4880,7 +4878,7 @@
         <v>-971803.5646225008</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4979,7 +4977,7 @@
         <v>-1093246.464722501</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5012,7 +5010,7 @@
         <v>-1190493.384722501</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5045,7 +5043,7 @@
         <v>-1190220.264722501</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5078,7 +5076,7 @@
         <v>-2260685.690322501</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5111,7 +5109,7 @@
         <v>-2260652.690322501</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5144,7 +5142,7 @@
         <v>-2260652.690322501</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5177,7 +5175,7 @@
         <v>-2297189.370322501</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5210,7 +5208,7 @@
         <v>-2297189.370322501</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5309,7 +5307,7 @@
         <v>1668103.745477499</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5342,7 +5340,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5375,7 +5373,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5408,7 +5406,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5441,7 +5439,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5474,7 +5472,7 @@
         <v>1465244.128777499</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5507,7 +5505,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5540,7 +5538,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5573,7 +5571,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5606,7 +5604,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5672,7 +5670,7 @@
         <v>2474769.839577499</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5705,7 +5703,7 @@
         <v>2472293.839577499</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5771,7 +5769,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5804,7 +5802,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5870,7 +5868,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5936,7 +5934,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6200,7 +6198,7 @@
         <v>3693553.427077499</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6266,7 +6264,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6299,7 +6297,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6332,7 +6330,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6365,7 +6363,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6398,7 +6396,7 @@
         <v>1636415.090077499</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6431,7 +6429,7 @@
         <v>2354501.100977499</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6464,7 +6462,7 @@
         <v>2196877.486377499</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6497,7 +6495,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6530,7 +6528,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6563,7 +6561,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6596,7 +6594,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6629,7 +6627,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6662,7 +6660,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6695,7 +6693,7 @@
         <v>1147785.217977499</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6728,7 +6726,7 @@
         <v>7748352.185877498</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6761,7 +6759,7 @@
         <v>7722253.512977499</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6794,7 +6792,7 @@
         <v>8127631.060077499</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6827,7 +6825,7 @@
         <v>7723286.906777498</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6860,7 +6858,7 @@
         <v>7723418.906777498</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6893,7 +6891,7 @@
         <v>5882593.079777498</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6926,7 +6924,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6959,7 +6957,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6992,7 +6990,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7025,7 +7023,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7058,7 +7056,7 @@
         <v>6608429.880377498</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7091,7 +7089,7 @@
         <v>6608475.080377498</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7124,7 +7122,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7157,7 +7155,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7190,7 +7188,7 @@
         <v>6534257.003477498</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7223,7 +7221,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7256,7 +7254,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7289,7 +7287,7 @@
         <v>6500418.328677498</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7322,7 +7320,7 @@
         <v>6457069.372977498</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7355,7 +7353,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7388,7 +7386,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7421,7 +7419,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7454,7 +7452,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7487,7 +7485,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7520,7 +7518,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7553,7 +7551,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7586,7 +7584,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7619,7 +7617,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7652,7 +7650,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7685,7 +7683,7 @@
         <v>5272527.816177498</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7718,7 +7716,7 @@
         <v>5325322.745177497</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7751,7 +7749,7 @@
         <v>5331559.745177497</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7784,7 +7782,7 @@
         <v>5309981.804077497</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7817,7 +7815,7 @@
         <v>5309981.804077497</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7850,7 +7848,7 @@
         <v>5309981.804077497</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7883,7 +7881,7 @@
         <v>4411331.606577497</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7916,7 +7914,7 @@
         <v>4411331.606577497</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7949,7 +7947,7 @@
         <v>4661031.918177497</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7982,7 +7980,7 @@
         <v>4661021.918177497</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8015,7 +8013,7 @@
         <v>4661021.918177497</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8048,7 +8046,7 @@
         <v>4972559.625348371</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8081,7 +8079,7 @@
         <v>4570829.654248371</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8114,7 +8112,7 @@
         <v>5014568.607948371</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8147,7 +8145,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8180,7 +8178,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8213,7 +8211,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8246,7 +8244,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8312,7 +8310,7 @@
         <v>3622168.627948371</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8345,7 +8343,7 @@
         <v>3632281.627948371</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8378,7 +8376,7 @@
         <v>3632281.627948371</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8444,7 +8442,7 @@
         <v>3624002.627948371</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8477,7 +8475,7 @@
         <v>3724002.627948371</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8510,7 +8508,7 @@
         <v>3724002.627948371</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8543,7 +8541,7 @@
         <v>3724002.627948371</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8576,7 +8574,7 @@
         <v>3724002.627948371</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8609,7 +8607,7 @@
         <v>3348410.556748371</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8642,7 +8640,7 @@
         <v>3946244.721348371</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8675,7 +8673,7 @@
         <v>4162173.15272092</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8708,7 +8706,7 @@
         <v>3979021.96562092</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8741,7 +8739,7 @@
         <v>3979021.96562092</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8774,7 +8772,7 @@
         <v>3979021.96562092</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8807,7 +8805,7 @@
         <v>3979021.96562092</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8840,7 +8838,7 @@
         <v>3979021.96562092</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8873,7 +8871,7 @@
         <v>1788689.40292092</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8906,7 +8904,7 @@
         <v>1788689.40292092</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8939,7 +8937,7 @@
         <v>2135874.05312092</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8972,7 +8970,7 @@
         <v>2135874.05312092</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9005,7 +9003,7 @@
         <v>2135874.05312092</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9104,7 +9102,7 @@
         <v>2128384.05312092</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9137,7 +9135,7 @@
         <v>2128384.05312092</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9203,7 +9201,7 @@
         <v>2128384.05312092</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9236,7 +9234,7 @@
         <v>2128384.05312092</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9401,7 +9399,7 @@
         <v>305720.1530209199</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9632,7 +9630,7 @@
         <v>-797662.2176790802</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9665,7 +9663,7 @@
         <v>-797662.2176790802</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9698,7 +9696,7 @@
         <v>-797662.2176790802</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9764,7 +9762,7 @@
         <v>-797662.2176790802</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10028,7 +10026,7 @@
         <v>540808.7497209198</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10061,7 +10059,7 @@
         <v>540808.7497209198</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10094,7 +10092,7 @@
         <v>1440944.67202092</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10127,7 +10125,7 @@
         <v>1440944.67202092</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10160,7 +10158,7 @@
         <v>1408552.85832092</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10193,7 +10191,7 @@
         <v>1408620.39832092</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10259,7 +10257,7 @@
         <v>1380026.07502092</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10325,7 +10323,7 @@
         <v>1380126.07502092</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10358,7 +10356,7 @@
         <v>1380126.07502092</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10457,7 +10455,7 @@
         <v>-1237948.066379081</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10490,7 +10488,7 @@
         <v>-1237948.066379081</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10523,7 +10521,7 @@
         <v>-1141948.066379081</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10556,7 +10554,7 @@
         <v>-1244023.106379081</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10589,7 +10587,7 @@
         <v>-1252195.827279081</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10622,7 +10620,7 @@
         <v>-1250095.827279081</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10655,7 +10653,7 @@
         <v>-1250095.827279081</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10688,7 +10686,7 @@
         <v>-1262225.057979081</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10721,7 +10719,7 @@
         <v>-1256996.692679081</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10754,7 +10752,7 @@
         <v>-1256996.692679081</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10787,7 +10785,7 @@
         <v>-1256996.692679081</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10820,7 +10818,7 @@
         <v>-1256776.692679081</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10853,7 +10851,7 @@
         <v>-1256776.692679081</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10886,7 +10884,7 @@
         <v>-1256776.692679081</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10919,7 +10917,7 @@
         <v>-17272.13237908063</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10952,7 +10950,7 @@
         <v>-1228044.656879081</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10985,7 +10983,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11018,7 +11016,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11084,7 +11082,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12272,7 +12270,7 @@
         <v>-4455792.243779083</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12503,7 +12501,7 @@
         <v>-5096059.530279083</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12536,7 +12534,7 @@
         <v>-5185902.583979083</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12569,7 +12567,7 @@
         <v>-5135890.583979083</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12602,7 +12600,7 @@
         <v>-5135890.583979083</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12635,7 +12633,7 @@
         <v>-5135890.583979083</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12668,7 +12666,7 @@
         <v>-5135691.083979083</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12701,7 +12699,7 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13328,10 +13326,14 @@
         <v>-10722293.72407908</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
@@ -13361,11 +13363,19 @@
         <v>-10722293.72407908</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13397,8 +13407,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13427,10 +13443,14 @@
         <v>-11222214.60407908</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
@@ -13460,11 +13480,19 @@
         <v>-8906380.875479084</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13493,11 +13521,19 @@
         <v>-8906363.775479084</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13526,11 +13562,19 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13559,15 +13603,17 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>0.99</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L398" t="n">
@@ -13598,10 +13644,14 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13635,10 +13685,14 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13672,10 +13726,14 @@
         <v>-9031453.905479085</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13709,10 +13767,14 @@
         <v>-9828291.845479084</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,10 +13808,14 @@
         <v>-9828291.845479084</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13783,10 +13849,14 @@
         <v>-9803271.845479084</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13820,10 +13890,14 @@
         <v>-9982835.495479085</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13857,10 +13931,14 @@
         <v>-9982835.495479085</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13894,10 +13972,14 @@
         <v>-7717127.495479085</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13931,10 +14013,14 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>1</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13968,10 +14054,14 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14005,10 +14095,14 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14042,10 +14136,14 @@
         <v>-8106122.531979084</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14079,12 +14177,14 @@
         <v>-7239089.187979084</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>0.98</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14118,12 +14218,14 @@
         <v>-9172340.802879084</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>1.01</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14157,12 +14259,14 @@
         <v>-9172140.802879084</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>0.97</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14199,7 +14303,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,10 +14339,14 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14270,10 +14380,14 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14307,10 +14421,14 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14344,10 +14462,14 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14381,12 +14503,14 @@
         <v>-11065847.23797908</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>0.97</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,12 +14544,14 @@
         <v>-11066535.03697908</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0.99</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14459,10 +14585,14 @@
         <v>-10601515.54387908</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14496,10 +14626,14 @@
         <v>-10652826.99527908</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14533,10 +14667,14 @@
         <v>-3969869.932579085</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,10 +14708,14 @@
         <v>-3969869.932579085</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,7 +14752,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14647,7 +14791,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14684,7 +14830,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,12 +14866,14 @@
         <v>617217.8377209143</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>0.97</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,7 +14910,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14797,7 +14949,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14834,7 +14988,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14871,7 +15027,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14908,7 +15066,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14945,7 +15105,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14982,7 +15144,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15019,7 +15183,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15056,7 +15222,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15093,7 +15261,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,7 +15300,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15167,7 +15339,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15204,7 +15378,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15241,7 +15417,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15278,7 +15456,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15315,7 +15495,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15352,7 +15534,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15389,7 +15573,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>0.99</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15401,6 +15587,6 @@
       <c r="M447" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest OCN.xlsx
+++ b/BackTest/2019-10-30 BackTest OCN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4509046.3664</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>4509046.3664</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>4509046.3664</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>5312335.004</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>5312335.004</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>5387335.004</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -852,7 +814,7 @@
         <v>-2813921.66615327</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -885,7 +847,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -918,7 +880,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1017,7 +979,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1050,7 +1012,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1083,7 +1045,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1116,7 +1078,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1149,7 +1111,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1182,7 +1144,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1215,7 +1177,7 @@
         <v>-1702347.565222501</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2172,7 +2134,7 @@
         <v>-81015.45982250095</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2238,7 +2200,7 @@
         <v>-106793.604722501</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2271,7 +2233,7 @@
         <v>-133674.992722501</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2304,7 +2266,7 @@
         <v>-133663.992722501</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2337,7 +2299,7 @@
         <v>-193663.992722501</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2370,7 +2332,7 @@
         <v>-193663.992722501</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2403,7 +2365,7 @@
         <v>-163737.176022501</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2436,7 +2398,7 @@
         <v>58321.82397749904</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2469,7 +2431,7 @@
         <v>-21363.40402250097</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2667,7 +2629,7 @@
         <v>-322627.186222501</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2700,7 +2662,7 @@
         <v>-322627.186222501</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2733,7 +2695,7 @@
         <v>-333411.499922501</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2799,7 +2761,7 @@
         <v>-275531.976122501</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2832,7 +2794,7 @@
         <v>-275531.976122501</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2865,7 +2827,7 @@
         <v>-275531.976122501</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2898,7 +2860,7 @@
         <v>66630.73637749907</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2931,7 +2893,7 @@
         <v>-193369.2636225009</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2964,7 +2926,7 @@
         <v>-49645.92292250093</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2997,7 +2959,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3030,7 +2992,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3063,7 +3025,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3096,7 +3058,7 @@
         <v>-99645.92292250093</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3129,7 +3091,7 @@
         <v>-99634.72292250094</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3162,7 +3124,7 @@
         <v>-149634.7229225009</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3294,7 +3256,7 @@
         <v>-18843.69912250091</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3393,7 +3355,7 @@
         <v>-46556.18232250091</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3426,7 +3388,7 @@
         <v>-45603.80142250092</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3492,7 +3454,7 @@
         <v>-45529.41642250092</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4746,7 +4708,7 @@
         <v>-854888.9354225008</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4779,7 +4741,7 @@
         <v>-854888.9354225008</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4812,7 +4774,7 @@
         <v>-847976.9354225008</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4845,7 +4807,7 @@
         <v>-971837.6846225008</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4878,7 +4840,7 @@
         <v>-971803.5646225008</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4977,7 +4939,7 @@
         <v>-1093246.464722501</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5010,7 +4972,7 @@
         <v>-1190493.384722501</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5043,7 +5005,7 @@
         <v>-1190220.264722501</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5076,7 +5038,7 @@
         <v>-2260685.690322501</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5142,7 +5104,7 @@
         <v>-2260652.690322501</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5175,7 +5137,7 @@
         <v>-2297189.370322501</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5208,7 +5170,7 @@
         <v>-2297189.370322501</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5307,7 +5269,7 @@
         <v>1668103.745477499</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5340,7 +5302,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5373,7 +5335,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5406,7 +5368,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5439,7 +5401,7 @@
         <v>1568103.745477499</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5472,7 +5434,7 @@
         <v>1465244.128777499</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5505,7 +5467,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5538,7 +5500,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5571,7 +5533,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5604,7 +5566,7 @@
         <v>1782714.128777499</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5670,7 +5632,7 @@
         <v>2474769.839577499</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5703,7 +5665,7 @@
         <v>2472293.839577499</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5769,7 +5731,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5802,7 +5764,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5868,7 +5830,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5934,7 +5896,7 @@
         <v>2591464.839577499</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6297,7 +6259,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6330,7 +6292,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6363,7 +6325,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6396,7 +6358,7 @@
         <v>1636415.090077499</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6429,7 +6391,7 @@
         <v>2354501.100977499</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6462,7 +6424,7 @@
         <v>2196877.486377499</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6495,7 +6457,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6528,7 +6490,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6561,7 +6523,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6594,7 +6556,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6627,7 +6589,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6660,7 +6622,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6693,7 +6655,7 @@
         <v>1147785.217977499</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6726,7 +6688,7 @@
         <v>7748352.185877498</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6759,7 +6721,7 @@
         <v>7722253.512977499</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6792,7 +6754,7 @@
         <v>8127631.060077499</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6825,7 +6787,7 @@
         <v>7723286.906777498</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6858,7 +6820,7 @@
         <v>7723418.906777498</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6891,7 +6853,7 @@
         <v>5882593.079777498</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6924,7 +6886,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6957,7 +6919,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6990,7 +6952,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7023,7 +6985,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7056,7 +7018,7 @@
         <v>6608429.880377498</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7089,7 +7051,7 @@
         <v>6608475.080377498</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7122,7 +7084,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7155,7 +7117,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7188,7 +7150,7 @@
         <v>6534257.003477498</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7221,7 +7183,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7254,7 +7216,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7287,7 +7249,7 @@
         <v>6500418.328677498</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7320,7 +7282,7 @@
         <v>6457069.372977498</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7353,7 +7315,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7386,7 +7348,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7419,7 +7381,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7452,7 +7414,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7485,7 +7447,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7518,7 +7480,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7551,7 +7513,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7584,7 +7546,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7617,7 +7579,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7650,7 +7612,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7683,7 +7645,7 @@
         <v>5272527.816177498</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7716,7 +7678,7 @@
         <v>5325322.745177497</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7749,7 +7711,7 @@
         <v>5331559.745177497</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7782,7 +7744,7 @@
         <v>5309981.804077497</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7815,7 +7777,7 @@
         <v>5309981.804077497</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7848,7 +7810,7 @@
         <v>5309981.804077497</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7881,7 +7843,7 @@
         <v>4411331.606577497</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7914,7 +7876,7 @@
         <v>4411331.606577497</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7947,7 +7909,7 @@
         <v>4661031.918177497</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7980,7 +7942,7 @@
         <v>4661021.918177497</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8013,7 +7975,7 @@
         <v>4661021.918177497</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8046,7 +8008,7 @@
         <v>4972559.625348371</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8079,7 +8041,7 @@
         <v>4570829.654248371</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8112,7 +8074,7 @@
         <v>5014568.607948371</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8145,7 +8107,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8178,7 +8140,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8211,7 +8173,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8244,7 +8206,7 @@
         <v>3914619.023848371</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8310,7 +8272,7 @@
         <v>3622168.627948371</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -12666,11 +12628,17 @@
         <v>-5135691.083979083</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12703,7 +12671,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12732,11 +12704,17 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12765,11 +12743,17 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12798,11 +12782,17 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12831,11 +12821,17 @@
         <v>-6591599.096379083</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12864,11 +12860,17 @@
         <v>-6590499.096379083</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12901,7 +12903,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12934,7 +12940,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +12977,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13000,7 +13014,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13033,7 +13051,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13066,7 +13088,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13099,7 +13125,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +13162,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13165,7 +13199,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13198,7 +13236,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13231,7 +13273,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13264,7 +13310,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13297,7 +13347,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13326,15 +13380,15 @@
         <v>-10722293.72407908</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J391" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K391" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13363,17 +13417,13 @@
         <v>-10722293.72407908</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J392" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -13407,12 +13457,10 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L393" t="n">
@@ -13443,15 +13491,15 @@
         <v>-11222214.60407908</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J394" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K394" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13480,17 +13528,13 @@
         <v>-8906380.875479084</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J395" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L395" t="n">
@@ -13521,17 +13565,13 @@
         <v>-8906363.775479084</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>1</v>
-      </c>
-      <c r="J396" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13562,17 +13602,13 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J397" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13603,14 +13639,10 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J398" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,14 +13676,10 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J399" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13685,14 +13713,10 @@
         <v>-9106363.775479084</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J400" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13726,14 +13750,10 @@
         <v>-9031453.905479085</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J401" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13767,14 +13787,10 @@
         <v>-9828291.845479084</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J402" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13808,14 +13824,10 @@
         <v>-9828291.845479084</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J403" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13849,14 +13861,10 @@
         <v>-9803271.845479084</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J404" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13890,14 +13898,10 @@
         <v>-9982835.495479085</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J405" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13931,14 +13935,10 @@
         <v>-9982835.495479085</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J406" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13972,14 +13972,10 @@
         <v>-7717127.495479085</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J407" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14013,14 +14009,10 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>1</v>
-      </c>
-      <c r="J408" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14054,14 +14046,10 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J409" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14095,14 +14083,10 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J410" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14136,14 +14120,10 @@
         <v>-8106122.531979084</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J411" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14177,14 +14157,10 @@
         <v>-7239089.187979084</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J412" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14218,14 +14194,10 @@
         <v>-9172340.802879084</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J413" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14259,14 +14231,10 @@
         <v>-9172140.802879084</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J414" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14303,9 +14271,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,14 +14305,10 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J416" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14380,14 +14342,10 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J417" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,14 +14379,10 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J418" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14462,14 +14416,10 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J419" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14508,9 +14458,7 @@
       <c r="I420" t="n">
         <v>0.97</v>
       </c>
-      <c r="J420" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,14 +14492,10 @@
         <v>-11066535.03697908</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J421" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14585,14 +14529,10 @@
         <v>-10601515.54387908</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J422" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14631,9 +14571,7 @@
       <c r="I423" t="n">
         <v>0.99</v>
       </c>
-      <c r="J423" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,9 +14610,7 @@
       <c r="I424" t="n">
         <v>0.97</v>
       </c>
-      <c r="J424" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14708,14 +14644,10 @@
         <v>-3969869.932579085</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="J425" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14752,9 +14684,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14791,9 +14721,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14830,9 +14758,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14866,14 +14792,10 @@
         <v>617217.8377209143</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J429" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14910,9 +14832,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14946,12 +14866,12 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14985,12 +14905,12 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15027,9 +14947,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15066,9 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15105,9 +15021,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,9 +15058,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15183,9 +15095,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15222,9 +15132,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15261,9 +15169,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15300,9 +15206,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15339,9 +15243,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,9 +15280,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,9 +15317,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15456,9 +15354,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15495,9 +15391,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15534,9 +15428,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,9 +15465,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>0.99</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15587,6 +15477,6 @@
       <c r="M447" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest OCN.xlsx
+++ b/BackTest/2019-10-30 BackTest OCN.xlsx
@@ -814,7 +814,7 @@
         <v>-2813921.66615327</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1571497.565222501</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1602347.565222501</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1702347.565222501</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>3693553.427077499</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>2179915.891377499</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3057415.722077499</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>1636415.090077499</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>2196877.486377499</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>2196887.486377499</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>2149119.390477499</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1147785.217977499</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>7748352.185877498</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>7722253.512977499</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>8127631.060077499</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>7723286.906777498</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>7723418.906777498</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>5882593.079777498</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>6637980.116077498</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>6638090.116077498</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>6608429.880377498</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>6608475.080377498</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>6534247.003477498</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>6534257.003477498</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>6500408.328677498</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>6500418.328677498</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>6457069.372977498</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>6643457.944377498</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>6141397.970877497</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>5357317.216077497</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1256776.692679081</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1227824.656879081</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12628,1137 +12628,1007 @@
         <v>-5135691.083979083</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F372" t="n">
+        <v>1455908.0124</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-6591599.096379083</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F373" t="n">
+        <v>100</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-6591599.096379083</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F374" t="n">
+        <v>158502.0253</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-6591599.096379083</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F375" t="n">
+        <v>49404.8698</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-6591599.096379083</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F376" t="n">
+        <v>100314.9921</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-6591599.096379083</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F377" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-6590499.096379083</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F378" t="n">
+        <v>183312.519</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-6590499.096379083</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F379" t="n">
+        <v>181026.6488</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-6590499.096379083</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F380" t="n">
+        <v>3169894.0825</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-9760393.178879082</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F381" t="n">
+        <v>100677.96</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-9659715.218879081</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1</v>
+      </c>
+      <c r="F382" t="n">
+        <v>232580.17</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-9659715.218879081</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1</v>
+      </c>
+      <c r="F383" t="n">
+        <v>100010</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-9659715.218879081</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1</v>
+      </c>
+      <c r="F384" t="n">
+        <v>3192.31</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-9659715.218879081</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1</v>
+      </c>
+      <c r="F385" t="n">
+        <v>1294.53</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-9659715.218879081</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1</v>
+      </c>
+      <c r="F386" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-9684715.218879081</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F387" t="n">
+        <v>10</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-9684705.218879081</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1</v>
+      </c>
+      <c r="F388" t="n">
+        <v>292770.058</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-9977475.276879082</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F389" t="n">
+        <v>744828.5572</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-10722303.83407908</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F390" t="n">
+        <v>711090.4553</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-10722303.83407908</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F391" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-10722293.72407908</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F392" t="n">
+        <v>10</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-10722293.72407908</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F393" t="n">
+        <v>499920.88</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-11222214.60407908</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F394" t="n">
+        <v>196187.1272</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-11222214.60407908</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>2315833.7286</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-8906380.875479084</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F396" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-8906363.775479084</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F397" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-9106363.775479084</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F398" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-9106363.775479084</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F399" t="n">
+        <v>195791.9554</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-9106363.775479084</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F400" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-9106363.775479084</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F401" t="n">
+        <v>74909.87</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-9031453.905479085</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E372" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F372" t="n">
-        <v>1455908.0124</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-6591599.096379083</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E373" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F373" t="n">
-        <v>100</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-6591599.096379083</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E374" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F374" t="n">
-        <v>158502.0253</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-6591599.096379083</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E375" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F375" t="n">
-        <v>49404.8698</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-6591599.096379083</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E376" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F376" t="n">
-        <v>100314.9921</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-6591599.096379083</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C377" t="n">
-        <v>1</v>
-      </c>
-      <c r="D377" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F377" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-6590499.096379083</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C378" t="n">
-        <v>1</v>
-      </c>
-      <c r="D378" t="n">
-        <v>1</v>
-      </c>
-      <c r="E378" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F378" t="n">
-        <v>183312.519</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-6590499.096379083</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C379" t="n">
-        <v>1</v>
-      </c>
-      <c r="D379" t="n">
-        <v>1</v>
-      </c>
-      <c r="E379" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F379" t="n">
-        <v>181026.6488</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-6590499.096379083</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>1</v>
-      </c>
-      <c r="C380" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D380" t="n">
-        <v>1</v>
-      </c>
-      <c r="E380" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F380" t="n">
-        <v>3169894.0825</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-9760393.178879082</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C381" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D381" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E381" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F381" t="n">
-        <v>100677.96</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-9659715.218879081</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>1</v>
-      </c>
-      <c r="C382" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D382" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E382" t="n">
-        <v>1</v>
-      </c>
-      <c r="F382" t="n">
-        <v>232580.17</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-9659715.218879081</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>1</v>
-      </c>
-      <c r="C383" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D383" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E383" t="n">
-        <v>1</v>
-      </c>
-      <c r="F383" t="n">
-        <v>100010</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-9659715.218879081</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>1</v>
-      </c>
-      <c r="C384" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D384" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E384" t="n">
-        <v>1</v>
-      </c>
-      <c r="F384" t="n">
-        <v>3192.31</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-9659715.218879081</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C385" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D385" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E385" t="n">
-        <v>1</v>
-      </c>
-      <c r="F385" t="n">
-        <v>1294.53</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-9659715.218879081</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>1</v>
-      </c>
-      <c r="C386" t="n">
-        <v>1</v>
-      </c>
-      <c r="D386" t="n">
-        <v>1</v>
-      </c>
-      <c r="E386" t="n">
-        <v>1</v>
-      </c>
-      <c r="F386" t="n">
-        <v>25000</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-9684715.218879081</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C387" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D387" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E387" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F387" t="n">
-        <v>10</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-9684705.218879081</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>1</v>
-      </c>
-      <c r="C388" t="n">
-        <v>1</v>
-      </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="n">
-        <v>1</v>
-      </c>
-      <c r="F388" t="n">
-        <v>292770.058</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-9977475.276879082</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="C389" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D389" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="E389" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F389" t="n">
-        <v>744828.5572</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-10722303.83407908</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C390" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D390" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E390" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F390" t="n">
-        <v>711090.4553</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-10722303.83407908</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C391" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D391" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E391" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F391" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-10722293.72407908</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C392" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D392" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E392" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F392" t="n">
-        <v>10</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-10722293.72407908</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C393" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D393" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E393" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F393" t="n">
-        <v>499920.88</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-11222214.60407908</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C394" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D394" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E394" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F394" t="n">
-        <v>196187.1272</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-11222214.60407908</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1</v>
-      </c>
-      <c r="C395" t="n">
-        <v>1</v>
-      </c>
-      <c r="D395" t="n">
-        <v>1</v>
-      </c>
-      <c r="E395" t="n">
-        <v>1</v>
-      </c>
-      <c r="F395" t="n">
-        <v>2315833.7286</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-8906380.875479084</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C396" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D396" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E396" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F396" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-8906363.775479084</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>1</v>
-      </c>
-      <c r="C397" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D397" t="n">
-        <v>1</v>
-      </c>
-      <c r="E397" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F397" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-9106363.775479084</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D398" t="n">
-        <v>1</v>
-      </c>
-      <c r="E398" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F398" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-9106363.775479084</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C399" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E399" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F399" t="n">
-        <v>195791.9554</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-9106363.775479084</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C400" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="D400" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="E400" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F400" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-9106363.775479084</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C401" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D401" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="E401" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F401" t="n">
-        <v>74909.87</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-9031453.905479085</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13787,9 +13657,11 @@
         <v>-9828291.845479084</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13861,9 +13733,11 @@
         <v>-9803271.845479084</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -13935,9 +13809,11 @@
         <v>-9982835.495479085</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -13972,9 +13848,11 @@
         <v>-7717127.495479085</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14046,9 +13924,11 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14083,9 +13963,11 @@
         <v>-7847008.808579084</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14120,9 +14002,11 @@
         <v>-8106122.531979084</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14157,9 +14041,11 @@
         <v>-7239089.187979084</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14194,9 +14080,11 @@
         <v>-9172340.802879084</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14231,9 +14119,11 @@
         <v>-9172140.802879084</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14268,9 +14158,11 @@
         <v>-9700586.818179084</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1</v>
+      </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14305,9 +14197,11 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14342,9 +14236,11 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14379,9 +14275,11 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14416,9 +14314,11 @@
         <v>-11065857.23797908</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14492,9 +14392,11 @@
         <v>-11066535.03697908</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.99</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14529,9 +14431,11 @@
         <v>-10601515.54387908</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14644,9 +14548,11 @@
         <v>-3969869.932579085</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14681,9 +14587,11 @@
         <v>-3982505.397379085</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.98</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14718,9 +14626,11 @@
         <v>-1716226.762379086</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.97</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14866,11 +14776,9 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>0.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14905,11 +14813,9 @@
         <v>94632.1053209143</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
